--- a/Not_assigned_SO.xlsx
+++ b/Not_assigned_SO.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1035" yWindow="2175" windowWidth="28635" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-29" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SO_POD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -872,31 +872,31 @@
         <v>15</v>
       </c>
       <c r="G3" s="37" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="H3" s="37" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="36" t="n">
         <v>20</v>
       </c>
       <c r="M3" s="36" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N3" s="36" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="36" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P3" s="36" t="n">
         <v>0.3</v>
@@ -919,76 +919,76 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="n">
+      <c r="A4" s="49" t="n">
         <v>45919</v>
       </c>
-      <c r="B4" s="39" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <is>
           <t>Monteris Medical</t>
         </is>
       </c>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="C4" s="32" t="inlineStr">
         <is>
           <t>08000</t>
         </is>
       </c>
-      <c r="D4" s="39" t="inlineStr">
+      <c r="D4" s="32" t="inlineStr">
         <is>
           <t>SO-20251333</t>
         </is>
       </c>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="E4" s="32" t="inlineStr">
         <is>
           <t>Nuvo-9160GC</t>
         </is>
       </c>
-      <c r="F4" s="39" t="n">
+      <c r="F4" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="39" t="n">
+      <c r="G4" s="33" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H4" s="33" t="n">
+        <v>-24</v>
+      </c>
+      <c r="I4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K4" s="39" t="n">
+      <c r="K4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="L4" s="39" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39" t="n">
+      <c r="L4" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="M4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="O4" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="39" t="n">
+      <c r="O4" s="32" t="n">
+        <v>-24</v>
+      </c>
+      <c r="P4" s="32" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q4" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S4" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T4" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="Q4" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="R4" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S4" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T4" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>5</v>
       </c>
       <c r="G6" s="40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H6" s="40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="39" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J6" s="39" t="n">
         <v>73</v>
       </c>
       <c r="K6" s="39" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L6" s="39" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M6" s="39" t="n">
         <v>70</v>
@@ -1118,10 +1118,10 @@
         <v>50</v>
       </c>
       <c r="O6" s="39" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P6" s="39" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q6" s="39" t="n">
         <v>0</v>
@@ -1168,25 +1168,25 @@
         <v>5</v>
       </c>
       <c r="G7" s="40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" s="40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="39" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K7" s="39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L7" s="39" t="n">
         <v>5</v>
       </c>
       <c r="M7" s="39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7" s="39" t="n">
         <v>0</v>
@@ -1242,25 +1242,25 @@
         <v>5</v>
       </c>
       <c r="G8" s="40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H8" s="40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I8" s="39" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="39" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K8" s="39" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L8" s="39" t="n">
         <v>8</v>
       </c>
       <c r="M8" s="39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="39" t="n">
         <v>15</v>
@@ -1363,76 +1363,76 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="n">
+      <c r="A10" s="49" t="n">
         <v>45919</v>
       </c>
-      <c r="B10" s="39" t="inlineStr">
+      <c r="B10" s="32" t="inlineStr">
         <is>
           <t>Monteris Medical</t>
         </is>
       </c>
-      <c r="C10" s="39" t="inlineStr">
+      <c r="C10" s="32" t="inlineStr">
         <is>
           <t>08000</t>
         </is>
       </c>
-      <c r="D10" s="39" t="inlineStr">
+      <c r="D10" s="32" t="inlineStr">
         <is>
           <t>SO-20251333</t>
         </is>
       </c>
-      <c r="E10" s="39" t="inlineStr">
+      <c r="E10" s="32" t="inlineStr">
         <is>
           <t>Gpubr-Nuvo9160-01</t>
         </is>
       </c>
-      <c r="F10" s="39" t="n">
+      <c r="F10" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" s="39" t="n">
+      <c r="G10" s="33" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H10" s="33" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I10" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="K10" s="39" t="n">
-        <v>21</v>
-      </c>
-      <c r="L10" s="39" t="n">
-        <v>17</v>
-      </c>
-      <c r="M10" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="39" t="n">
+      <c r="K10" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="M10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="O10" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" s="39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q10" s="41" t="n">
-        <v>12</v>
-      </c>
-      <c r="R10" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S10" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T10" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="O10" s="32" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P10" s="32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q10" s="34" t="n">
+        <v>37</v>
+      </c>
+      <c r="R10" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S10" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T10" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="39" t="n">
         <v>36</v>
@@ -1479,7 +1479,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="39" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11" s="39" t="n">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>30</v>
       </c>
       <c r="O11" s="39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P11" s="39" t="n">
         <v>4.7</v>
       </c>
       <c r="Q11" s="41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11" s="42" t="n">
         <v>73050</v>
@@ -1538,22 +1538,22 @@
         <v>20</v>
       </c>
       <c r="G12" s="40" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="40" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I12" s="39" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J12" s="39" t="n">
         <v>344</v>
       </c>
       <c r="K12" s="39" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L12" s="39" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="39" t="n">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>80</v>
       </c>
       <c r="O12" s="39" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P12" s="39" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q12" s="39" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="G14" s="40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="39" t="n">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         <v>58</v>
       </c>
       <c r="L14" s="39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M14" s="39" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P14" s="39" t="n">
         <v>4.1</v>
@@ -1760,10 +1760,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="40" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H15" s="40" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I15" s="39" t="n">
         <v>124</v>
@@ -1775,7 +1775,7 @@
         <v>423</v>
       </c>
       <c r="L15" s="39" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M15" s="39" t="n">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>100</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P15" s="39" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q15" s="39" t="n">
         <v>0</v>
@@ -1881,76 +1881,76 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="51" t="n">
+      <c r="A17" s="49" t="n">
         <v>45919</v>
       </c>
-      <c r="B17" s="39" t="inlineStr">
+      <c r="B17" s="32" t="inlineStr">
         <is>
           <t>Monteris Medical</t>
         </is>
       </c>
-      <c r="C17" s="39" t="inlineStr">
+      <c r="C17" s="32" t="inlineStr">
         <is>
           <t>08000</t>
         </is>
       </c>
-      <c r="D17" s="39" t="inlineStr">
+      <c r="D17" s="32" t="inlineStr">
         <is>
           <t>SO-20251333</t>
         </is>
       </c>
-      <c r="E17" s="39" t="inlineStr">
+      <c r="E17" s="32" t="inlineStr">
         <is>
           <t>PA-600W-ENC</t>
         </is>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" s="40" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="39" t="n">
+      <c r="G17" s="33" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H17" s="33" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I17" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="M17" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="J17" s="39" t="n">
-        <v>14</v>
-      </c>
-      <c r="K17" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="L17" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="M17" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" s="39" t="n">
-        <v>7</v>
-      </c>
-      <c r="P17" s="39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q17" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S17" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T17" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="O17" s="32" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P17" s="32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q17" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R17" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S17" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T17" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>40</v>
       </c>
       <c r="G18" s="40" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H18" s="40" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="I18" s="39" t="n">
         <v>164</v>
@@ -1997,7 +1997,7 @@
         <v>698</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M18" s="39" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>100</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="Q18" s="39" t="n">
         <v>0</v>
@@ -2130,31 +2130,31 @@
         <v>5</v>
       </c>
       <c r="G20" s="33" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="H20" s="33" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="I20" s="32" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="32" t="n">
         <v>20</v>
       </c>
       <c r="M20" s="32" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N20" s="32" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="32" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32" t="n">
         <v>0.3</v>
@@ -2281,22 +2281,22 @@
         <v>-3</v>
       </c>
       <c r="H22" s="37" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="I22" s="36" t="n">
         <v>34</v>
       </c>
       <c r="J22" s="36" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K22" s="36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L22" s="36" t="n">
         <v>44</v>
       </c>
       <c r="M22" s="36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N22" s="36" t="n">
         <v>5</v>
@@ -2379,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="P23" s="43" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" s="43" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="P26" s="43" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q26" s="41" t="n">
         <v>11</v>
@@ -2648,25 +2648,25 @@
         <v>4</v>
       </c>
       <c r="G27" s="44" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H27" s="44" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I27" s="43" t="n">
         <v>82</v>
       </c>
       <c r="J27" s="43" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K27" s="43" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L27" s="43" t="n">
         <v>106</v>
       </c>
       <c r="M27" s="43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N27" s="43" t="n">
         <v>50</v>
@@ -2675,7 +2675,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="43" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Q27" s="41" t="n">
         <v>13</v>
@@ -2728,10 +2728,10 @@
         <v>-80</v>
       </c>
       <c r="I28" s="43" t="n">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J28" s="43" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K28" s="43" t="n">
         <v>167</v>
@@ -2873,22 +2873,22 @@
         <v>-3</v>
       </c>
       <c r="H30" s="33" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="I30" s="32" t="n">
         <v>34</v>
       </c>
       <c r="J30" s="32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L30" s="32" t="n">
         <v>44</v>
       </c>
       <c r="M30" s="32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N30" s="32" t="n">
         <v>5</v>
@@ -2971,7 +2971,7 @@
         <v>50</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q31" s="39" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q34" s="41" t="n">
         <v>11</v>
@@ -3240,25 +3240,25 @@
         <v>8</v>
       </c>
       <c r="G35" s="40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H35" s="40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I35" s="39" t="n">
         <v>82</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L35" s="39" t="n">
         <v>106</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N35" s="39" t="n">
         <v>50</v>
@@ -3267,7 +3267,7 @@
         <v>26</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Q35" s="41" t="n">
         <v>13</v>
@@ -3320,10 +3320,10 @@
         <v>-80</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K36" s="39" t="n">
         <v>167</v>
@@ -3465,22 +3465,22 @@
         <v>-3</v>
       </c>
       <c r="H38" s="37" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="I38" s="36" t="n">
         <v>34</v>
       </c>
       <c r="J38" s="36" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K38" s="36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L38" s="36" t="n">
         <v>44</v>
       </c>
       <c r="M38" s="36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N38" s="36" t="n">
         <v>5</v>
@@ -3563,7 +3563,7 @@
         <v>50</v>
       </c>
       <c r="P39" s="43" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q39" s="43" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="P42" s="43" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q42" s="41" t="n">
         <v>11</v>
@@ -3832,25 +3832,25 @@
         <v>8</v>
       </c>
       <c r="G43" s="44" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H43" s="44" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I43" s="43" t="n">
         <v>82</v>
       </c>
       <c r="J43" s="43" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K43" s="43" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L43" s="43" t="n">
         <v>106</v>
       </c>
       <c r="M43" s="43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N43" s="43" t="n">
         <v>50</v>
@@ -3859,7 +3859,7 @@
         <v>26</v>
       </c>
       <c r="P43" s="43" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Q43" s="41" t="n">
         <v>13</v>
@@ -3912,10 +3912,10 @@
         <v>-80</v>
       </c>
       <c r="I44" s="43" t="n">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J44" s="43" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K44" s="43" t="n">
         <v>167</v>
@@ -4282,10 +4282,10 @@
         <v>14</v>
       </c>
       <c r="I49" s="43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J49" s="43" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K49" s="43" t="n">
         <v>126</v>
@@ -4356,10 +4356,10 @@
         <v>-20</v>
       </c>
       <c r="I50" s="43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J50" s="43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K50" s="43" t="n">
         <v>38</v>
@@ -4578,16 +4578,16 @@
         <v>34</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M53" s="39" t="n">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>34</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q53" s="39" t="n">
         <v>0</v>
@@ -4649,22 +4649,22 @@
         <v>6</v>
       </c>
       <c r="H54" s="40" t="n">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="I54" s="39" t="n">
         <v>4</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L54" s="39" t="n">
         <v>29</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N54" s="39" t="n">
         <v>5</v>
@@ -4800,16 +4800,16 @@
         <v>126</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J56" s="39" t="n">
         <v>160</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M56" s="39" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>126</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q56" s="39" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>14</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K61" s="39" t="n">
         <v>126</v>
@@ -5312,25 +5312,25 @@
         <v>2</v>
       </c>
       <c r="G63" s="40" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H63" s="40" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I63" s="39" t="n">
         <v>13</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L63" s="39" t="n">
         <v>15</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N63" s="39" t="n">
         <v>15</v>
@@ -5910,10 +5910,10 @@
         <v>-20</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K71" s="39" t="n">
         <v>38</v>
@@ -6280,16 +6280,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J76" s="39" t="n">
         <v>3</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M76" s="39" t="n">
         <v>4</v>
@@ -6301,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q76" s="41" t="n">
         <v>2</v>
@@ -6354,10 +6354,10 @@
         <v>-35</v>
       </c>
       <c r="I77" s="32" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J77" s="32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" s="32" t="n">
         <v>15</v>
@@ -6428,16 +6428,16 @@
         <v>-2</v>
       </c>
       <c r="I78" s="32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J78" s="32" t="n">
         <v>2</v>
       </c>
       <c r="K78" s="32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L78" s="32" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M78" s="32" t="n">
         <v>2</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q78" s="34" t="n">
         <v>4</v>
@@ -6496,22 +6496,22 @@
         <v>4</v>
       </c>
       <c r="G79" s="40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H79" s="40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J79" s="39" t="n">
         <v>73</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M79" s="39" t="n">
         <v>70</v>
@@ -6520,10 +6520,10 @@
         <v>50</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q79" s="39" t="n">
         <v>0</v>
@@ -6570,25 +6570,25 @@
         <v>2</v>
       </c>
       <c r="G80" s="40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H80" s="40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I80" s="39" t="n">
         <v>1</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L80" s="39" t="n">
         <v>8</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N80" s="39" t="n">
         <v>15</v>
@@ -6691,150 +6691,150 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="51" t="n">
+      <c r="A82" s="49" t="n">
         <v>45953</v>
       </c>
-      <c r="B82" s="39" t="inlineStr">
+      <c r="B82" s="32" t="inlineStr">
         <is>
           <t>F.K. MACHINERY LTD.</t>
         </is>
       </c>
-      <c r="C82" s="39" t="inlineStr">
+      <c r="C82" s="32" t="inlineStr">
         <is>
           <t>4018670</t>
         </is>
       </c>
-      <c r="D82" s="39" t="inlineStr">
+      <c r="D82" s="32" t="inlineStr">
         <is>
           <t>SO-20251508</t>
         </is>
       </c>
-      <c r="E82" s="39" t="inlineStr">
+      <c r="E82" s="32" t="inlineStr">
         <is>
           <t>Gpubr-Nuvo9160-01</t>
         </is>
       </c>
-      <c r="F82" s="39" t="n">
+      <c r="F82" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="H82" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I82" s="39" t="n">
+      <c r="G82" s="33" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H82" s="33" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I82" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K82" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="L82" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="M82" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" s="32" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P82" s="32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q82" s="34" t="n">
+        <v>37</v>
+      </c>
+      <c r="R82" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S82" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T82" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="51" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B83" s="39" t="inlineStr">
+        <is>
+          <t>F.K. MACHINERY LTD.</t>
+        </is>
+      </c>
+      <c r="C83" s="39" t="inlineStr">
+        <is>
+          <t>4018670</t>
+        </is>
+      </c>
+      <c r="D83" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251508</t>
+        </is>
+      </c>
+      <c r="E83" s="39" t="inlineStr">
+        <is>
+          <t>mPCIeHS-BTWifi-WT-6218</t>
+        </is>
+      </c>
+      <c r="F83" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="J83" s="39" t="n">
+        <v>23</v>
+      </c>
+      <c r="K83" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="L83" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="M83" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="O83" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="J82" s="39" t="n">
-        <v>12</v>
-      </c>
-      <c r="K82" s="39" t="n">
-        <v>21</v>
-      </c>
-      <c r="L82" s="39" t="n">
-        <v>17</v>
-      </c>
-      <c r="M82" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="O82" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="P82" s="39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q82" s="41" t="n">
-        <v>12</v>
-      </c>
-      <c r="R82" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S82" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T82" s="39" t="inlineStr">
+      <c r="P83" s="39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q83" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S83" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T83" s="39" t="inlineStr">
         <is>
           <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="49" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B83" s="32" t="inlineStr">
-        <is>
-          <t>F.K. MACHINERY LTD.</t>
-        </is>
-      </c>
-      <c r="C83" s="32" t="inlineStr">
-        <is>
-          <t>4018670</t>
-        </is>
-      </c>
-      <c r="D83" s="32" t="inlineStr">
-        <is>
-          <t>SO-20251508</t>
-        </is>
-      </c>
-      <c r="E83" s="32" t="inlineStr">
-        <is>
-          <t>mPCIeHS-BTWifi-WT-6218</t>
-        </is>
-      </c>
-      <c r="F83" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" s="33" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H83" s="33" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I83" s="32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J83" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="K83" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="L83" s="32" t="n">
-        <v>16</v>
-      </c>
-      <c r="M83" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="N83" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="O83" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="P83" s="32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q83" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R83" s="35" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S83" s="32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T83" s="32" t="inlineStr">
-        <is>
-          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
         <v>12</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q84" s="41" t="n">
         <v>11</v>
@@ -6946,10 +6946,10 @@
         <v>-80</v>
       </c>
       <c r="I85" s="39" t="n">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K85" s="39" t="n">
         <v>167</v>
@@ -7014,25 +7014,25 @@
         <v>4</v>
       </c>
       <c r="G86" s="40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H86" s="40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I86" s="39" t="n">
         <v>82</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L86" s="39" t="n">
         <v>106</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N86" s="39" t="n">
         <v>50</v>
@@ -7041,7 +7041,7 @@
         <v>26</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Q86" s="41" t="n">
         <v>13</v>
@@ -7081,204 +7081,204 @@
       </c>
       <c r="E87" s="36" t="inlineStr">
         <is>
-          <t>Nuvo-9006LP</t>
+          <t>i9-13900</t>
         </is>
       </c>
       <c r="F87" s="36" t="n">
         <v>2</v>
       </c>
       <c r="G87" s="37" t="n">
-        <v>-4</v>
+        <v>-33</v>
       </c>
       <c r="H87" s="37" t="n">
-        <v>-4</v>
+        <v>-35</v>
       </c>
       <c r="I87" s="36" t="n">
+        <v>45</v>
+      </c>
+      <c r="J87" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K87" s="36" t="n">
+        <v>15</v>
+      </c>
+      <c r="L87" s="36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M87" s="36" t="n">
+        <v>62</v>
+      </c>
+      <c r="N87" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="36" t="n">
+        <v>27</v>
+      </c>
+      <c r="P87" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q87" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S87" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T87" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="52" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B88" s="43" t="inlineStr">
+        <is>
+          <t>Keysight Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C88" s="43" t="inlineStr">
+        <is>
+          <t>9080129269</t>
+        </is>
+      </c>
+      <c r="D88" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251511</t>
+        </is>
+      </c>
+      <c r="E88" s="43" t="inlineStr">
+        <is>
+          <t>DDR5-16GB-56-SM</t>
+        </is>
+      </c>
+      <c r="F88" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="J87" s="36" t="n">
+      <c r="G88" s="44" t="n">
+        <v>47</v>
+      </c>
+      <c r="H88" s="44" t="n">
+        <v>40</v>
+      </c>
+      <c r="I88" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" s="43" t="n">
+        <v>63</v>
+      </c>
+      <c r="K88" s="43" t="n">
+        <v>72</v>
+      </c>
+      <c r="L88" s="43" t="n">
+        <v>32</v>
+      </c>
+      <c r="M88" s="43" t="n">
+        <v>64</v>
+      </c>
+      <c r="N88" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="43" t="n">
+        <v>104</v>
+      </c>
+      <c r="P88" s="43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q88" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S88" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T88" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="50" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B89" s="36" t="inlineStr">
+        <is>
+          <t>Keysight Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C89" s="36" t="inlineStr">
+        <is>
+          <t>9080129269</t>
+        </is>
+      </c>
+      <c r="D89" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251511</t>
+        </is>
+      </c>
+      <c r="E89" s="36" t="inlineStr">
+        <is>
+          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+        </is>
+      </c>
+      <c r="F89" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="K87" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="L87" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="M87" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="N87" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="O87" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P87" s="36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q87" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S87" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T87" s="36" t="inlineStr">
+      <c r="G89" s="37" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H89" s="37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I89" s="36" t="n">
+        <v>54</v>
+      </c>
+      <c r="J89" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="K89" s="36" t="n">
+        <v>43</v>
+      </c>
+      <c r="L89" s="36" t="n">
+        <v>56</v>
+      </c>
+      <c r="M89" s="36" t="n">
+        <v>32</v>
+      </c>
+      <c r="N89" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O89" s="36" t="n">
+        <v>19</v>
+      </c>
+      <c r="P89" s="36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q89" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S89" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T89" s="36" t="inlineStr">
         <is>
           <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="50" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B88" s="36" t="inlineStr">
-        <is>
-          <t>Keysight Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="C88" s="36" t="inlineStr">
-        <is>
-          <t>9080129269</t>
-        </is>
-      </c>
-      <c r="D88" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251511</t>
-        </is>
-      </c>
-      <c r="E88" s="36" t="inlineStr">
-        <is>
-          <t>i9-13900</t>
-        </is>
-      </c>
-      <c r="F88" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" s="37" t="n">
-        <v>-33</v>
-      </c>
-      <c r="H88" s="37" t="n">
-        <v>-35</v>
-      </c>
-      <c r="I88" s="36" t="n">
-        <v>47</v>
-      </c>
-      <c r="J88" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K88" s="36" t="n">
-        <v>15</v>
-      </c>
-      <c r="L88" s="36" t="n">
-        <v>50</v>
-      </c>
-      <c r="M88" s="36" t="n">
-        <v>62</v>
-      </c>
-      <c r="N88" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" s="36" t="n">
-        <v>27</v>
-      </c>
-      <c r="P88" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q88" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S88" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T88" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="52" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B89" s="43" t="inlineStr">
-        <is>
-          <t>Keysight Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="C89" s="43" t="inlineStr">
-        <is>
-          <t>9080129269</t>
-        </is>
-      </c>
-      <c r="D89" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251511</t>
-        </is>
-      </c>
-      <c r="E89" s="43" t="inlineStr">
-        <is>
-          <t>DDR5-16GB-56-SM</t>
-        </is>
-      </c>
-      <c r="F89" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="G89" s="44" t="n">
-        <v>13</v>
-      </c>
-      <c r="H89" s="44" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" s="43" t="n">
-        <v>26</v>
-      </c>
-      <c r="J89" s="43" t="n">
-        <v>29</v>
-      </c>
-      <c r="K89" s="43" t="n">
-        <v>38</v>
-      </c>
-      <c r="L89" s="43" t="n">
-        <v>32</v>
-      </c>
-      <c r="M89" s="43" t="n">
-        <v>98</v>
-      </c>
-      <c r="N89" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" s="43" t="n">
-        <v>104</v>
-      </c>
-      <c r="P89" s="43" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q89" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S89" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T89" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
         </is>
       </c>
     </row>
@@ -7303,204 +7303,204 @@
       </c>
       <c r="E90" s="36" t="inlineStr">
         <is>
-          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+          <t>MezIO-AE304-KS(EA)</t>
         </is>
       </c>
       <c r="F90" s="36" t="n">
         <v>2</v>
       </c>
       <c r="G90" s="37" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="H90" s="37" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="I90" s="36" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J90" s="36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K90" s="36" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L90" s="36" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="M90" s="36" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="N90" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q90" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S90" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T90" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="52" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B91" s="43" t="inlineStr">
+        <is>
+          <t>Keysight Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C91" s="43" t="inlineStr">
+        <is>
+          <t>9080129269</t>
+        </is>
+      </c>
+      <c r="D91" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251511</t>
+        </is>
+      </c>
+      <c r="E91" s="43" t="inlineStr">
+        <is>
+          <t>PA-280W-ET3</t>
+        </is>
+      </c>
+      <c r="F91" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" s="43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J91" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="K91" s="43" t="n">
+        <v>23</v>
+      </c>
+      <c r="L91" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="M91" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="O90" s="36" t="n">
-        <v>19</v>
-      </c>
-      <c r="P90" s="36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q90" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S90" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T90" s="36" t="inlineStr">
+      <c r="O91" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="P91" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q91" s="41" t="n">
+        <v>24</v>
+      </c>
+      <c r="R91" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S91" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T91" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="50" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B92" s="36" t="inlineStr">
+        <is>
+          <t>Keysight Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C92" s="36" t="inlineStr">
+        <is>
+          <t>9080129269</t>
+        </is>
+      </c>
+      <c r="D92" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251511</t>
+        </is>
+      </c>
+      <c r="E92" s="36" t="inlineStr">
+        <is>
+          <t>Nuvo-9006LP-AUT-KS</t>
+        </is>
+      </c>
+      <c r="F92" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S92" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T92" s="36" t="inlineStr">
         <is>
           <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="50" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B91" s="36" t="inlineStr">
-        <is>
-          <t>Keysight Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="C91" s="36" t="inlineStr">
-        <is>
-          <t>9080129269</t>
-        </is>
-      </c>
-      <c r="D91" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251511</t>
-        </is>
-      </c>
-      <c r="E91" s="36" t="inlineStr">
-        <is>
-          <t>MezIO-AE304-KS(EA)</t>
-        </is>
-      </c>
-      <c r="F91" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="37" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I91" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="N91" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" s="36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q91" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R91" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S91" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T91" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="52" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B92" s="43" t="inlineStr">
-        <is>
-          <t>Keysight Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="C92" s="43" t="inlineStr">
-        <is>
-          <t>9080129269</t>
-        </is>
-      </c>
-      <c r="D92" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251511</t>
-        </is>
-      </c>
-      <c r="E92" s="43" t="inlineStr">
-        <is>
-          <t>PA-280W-ET3</t>
-        </is>
-      </c>
-      <c r="F92" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="H92" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I92" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" s="43" t="n">
-        <v>15</v>
-      </c>
-      <c r="K92" s="43" t="n">
-        <v>23</v>
-      </c>
-      <c r="L92" s="43" t="n">
-        <v>19</v>
-      </c>
-      <c r="M92" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="O92" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="P92" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q92" s="41" t="n">
-        <v>24</v>
-      </c>
-      <c r="R92" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S92" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T92" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
         </is>
       </c>
     </row>
@@ -8278,10 +8278,10 @@
         <v>-35</v>
       </c>
       <c r="I103" s="32" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J103" s="32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K103" s="32" t="n">
         <v>15</v>
@@ -8346,25 +8346,25 @@
         <v>2</v>
       </c>
       <c r="G104" s="40" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H104" s="40" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I104" s="39" t="n">
         <v>26</v>
       </c>
       <c r="J104" s="39" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K104" s="39" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="L104" s="39" t="n">
         <v>32</v>
       </c>
       <c r="M104" s="39" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N104" s="39" t="n">
         <v>0</v>
@@ -8420,25 +8420,25 @@
         <v>1</v>
       </c>
       <c r="G105" s="40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H105" s="40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I105" s="39" t="n">
         <v>13</v>
       </c>
       <c r="J105" s="39" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K105" s="39" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L105" s="39" t="n">
         <v>14</v>
       </c>
       <c r="M105" s="39" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N105" s="39" t="n">
         <v>30</v>
@@ -8568,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="G107" s="40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H107" s="40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>36</v>
@@ -8583,7 +8583,7 @@
         <v>57</v>
       </c>
       <c r="L107" s="39" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M107" s="39" t="n">
         <v>0</v>
@@ -8592,13 +8592,13 @@
         <v>30</v>
       </c>
       <c r="O107" s="39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P107" s="39" t="n">
         <v>4.7</v>
       </c>
       <c r="Q107" s="41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R107" s="42" t="n">
         <v>73050</v>
@@ -8642,22 +8642,22 @@
         <v>4</v>
       </c>
       <c r="G108" s="40" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H108" s="40" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I108" s="39" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J108" s="39" t="n">
         <v>344</v>
       </c>
       <c r="K108" s="39" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L108" s="39" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M108" s="39" t="n">
         <v>0</v>
@@ -8666,10 +8666,10 @@
         <v>80</v>
       </c>
       <c r="O108" s="39" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P108" s="39" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q108" s="39" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>8</v>
       </c>
       <c r="G109" s="40" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H109" s="40" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="I109" s="39" t="n">
         <v>164</v>
@@ -8731,7 +8731,7 @@
         <v>698</v>
       </c>
       <c r="L109" s="39" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M109" s="39" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>100</v>
       </c>
       <c r="O109" s="39" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P109" s="39" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="Q109" s="39" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="G112" s="40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H112" s="40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I112" s="39" t="n">
         <v>16</v>
@@ -8953,7 +8953,7 @@
         <v>58</v>
       </c>
       <c r="L112" s="39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M112" s="39" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>30</v>
       </c>
       <c r="O112" s="39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P112" s="39" t="n">
         <v>4.1</v>
@@ -9012,10 +9012,10 @@
         <v>6</v>
       </c>
       <c r="G113" s="40" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H113" s="40" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I113" s="39" t="n">
         <v>124</v>
@@ -9027,7 +9027,7 @@
         <v>423</v>
       </c>
       <c r="L113" s="39" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M113" s="39" t="n">
         <v>0</v>
@@ -9036,10 +9036,10 @@
         <v>100</v>
       </c>
       <c r="O113" s="39" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P113" s="39" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q113" s="39" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>126</v>
       </c>
       <c r="I116" s="39" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J116" s="39" t="n">
         <v>160</v>
       </c>
       <c r="K116" s="39" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L116" s="39" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M116" s="39" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>126</v>
       </c>
       <c r="P116" s="39" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q116" s="39" t="n">
         <v>0</v>
@@ -9308,22 +9308,22 @@
         <v>4</v>
       </c>
       <c r="G117" s="44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H117" s="44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I117" s="43" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J117" s="43" t="n">
         <v>73</v>
       </c>
       <c r="K117" s="43" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L117" s="43" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M117" s="43" t="n">
         <v>70</v>
@@ -9332,10 +9332,10 @@
         <v>50</v>
       </c>
       <c r="O117" s="43" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P117" s="43" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q117" s="43" t="n">
         <v>0</v>
@@ -9577,76 +9577,76 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="52" t="n">
+      <c r="A121" s="50" t="n">
         <v>45958</v>
       </c>
-      <c r="B121" s="43" t="inlineStr">
+      <c r="B121" s="36" t="inlineStr">
         <is>
           <t>Ascension Automation Solutions Ltd.</t>
         </is>
       </c>
-      <c r="C121" s="43" t="inlineStr">
+      <c r="C121" s="36" t="inlineStr">
         <is>
           <t>A202510281404228556</t>
         </is>
       </c>
-      <c r="D121" s="43" t="inlineStr">
+      <c r="D121" s="36" t="inlineStr">
         <is>
           <t>SO-20251527</t>
         </is>
       </c>
-      <c r="E121" s="43" t="inlineStr">
+      <c r="E121" s="36" t="inlineStr">
         <is>
           <t>Nuvo-9160GC</t>
         </is>
       </c>
-      <c r="F121" s="43" t="n">
+      <c r="F121" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="G121" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" s="43" t="n">
+      <c r="G121" s="37" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H121" s="37" t="n">
+        <v>-24</v>
+      </c>
+      <c r="I121" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="K121" s="43" t="n">
+      <c r="K121" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="L121" s="43" t="n">
-        <v>9</v>
-      </c>
-      <c r="M121" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" s="43" t="n">
+      <c r="L121" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M121" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="O121" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P121" s="43" t="n">
+      <c r="O121" s="36" t="n">
+        <v>-24</v>
+      </c>
+      <c r="P121" s="36" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q121" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="R121" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S121" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T121" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="Q121" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="R121" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S121" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T121" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -9696,19 +9696,19 @@
         <v>5</v>
       </c>
       <c r="M122" s="36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N122" s="36" t="n">
         <v>0</v>
       </c>
       <c r="O122" s="36" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P122" s="36" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q122" s="34" t="n">
-        <v>5</v>
+      <c r="Q122" s="36" t="n">
+        <v>0</v>
       </c>
       <c r="R122" s="38" t="n">
         <v>73050</v>
@@ -9725,76 +9725,76 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="52" t="n">
+      <c r="A123" s="50" t="n">
         <v>45958</v>
       </c>
-      <c r="B123" s="43" t="inlineStr">
+      <c r="B123" s="36" t="inlineStr">
         <is>
           <t>Ascension Automation Solutions Ltd.</t>
         </is>
       </c>
-      <c r="C123" s="43" t="inlineStr">
+      <c r="C123" s="36" t="inlineStr">
         <is>
           <t>A202510281404228556</t>
         </is>
       </c>
-      <c r="D123" s="43" t="inlineStr">
+      <c r="D123" s="36" t="inlineStr">
         <is>
           <t>SO-20251527</t>
         </is>
       </c>
-      <c r="E123" s="43" t="inlineStr">
+      <c r="E123" s="36" t="inlineStr">
         <is>
           <t>i5-14500</t>
         </is>
       </c>
-      <c r="F123" s="43" t="n">
+      <c r="F123" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="G123" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="H123" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I123" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="43" t="n">
+      <c r="G123" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H123" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="K123" s="43" t="n">
+      <c r="K123" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="L123" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M123" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O123" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="P123" s="43" t="n">
+      <c r="L123" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="M123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="36" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P123" s="36" t="n">
         <v>2.3</v>
       </c>
-      <c r="Q123" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="R123" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S123" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T123" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="Q123" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R123" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S123" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T123" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -9906,10 +9906,10 @@
         <v>84</v>
       </c>
       <c r="I125" s="39" t="n">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="J125" s="39" t="n">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="K125" s="39" t="n">
         <v>309</v>
@@ -10054,10 +10054,10 @@
         <v>-41</v>
       </c>
       <c r="I127" s="39" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J127" s="39" t="n">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="K127" s="39" t="n">
         <v>30</v>
@@ -10091,6 +10091,2226 @@
       <c r="T127" s="39" t="inlineStr">
         <is>
           <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B128" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C128" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D128" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E128" s="43" t="inlineStr">
+        <is>
+          <t>AccsyBx-Cardholder-10108GC-5080_70_70Ti</t>
+        </is>
+      </c>
+      <c r="F128" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L128" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M128" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" s="43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q128" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R128" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S128" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T128" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B129" s="36" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C129" s="36" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D129" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E129" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-PC-OW3-180CM1</t>
+        </is>
+      </c>
+      <c r="F129" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" s="37" t="n">
+        <v>-19</v>
+      </c>
+      <c r="H129" s="37" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I129" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K129" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L129" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="M129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" s="36" t="n">
+        <v>-19</v>
+      </c>
+      <c r="P129" s="36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q129" s="34" t="n">
+        <v>26</v>
+      </c>
+      <c r="R129" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S129" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T129" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B130" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C130" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D130" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E130" s="43" t="inlineStr">
+        <is>
+          <t>Cbl-YT-OW-Black-50CM1</t>
+        </is>
+      </c>
+      <c r="F130" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="H130" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="I130" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="K130" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="L130" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="M130" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="O130" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="P130" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q130" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S130" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T130" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B131" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C131" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D131" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E131" s="43" t="inlineStr">
+        <is>
+          <t>Cbl-YT-OW-Red-50CM1</t>
+        </is>
+      </c>
+      <c r="F131" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="H131" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="I131" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="K131" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="L131" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="M131" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="O131" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="P131" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q131" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S131" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T131" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B132" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C132" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D132" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E132" s="43" t="inlineStr">
+        <is>
+          <t>DDR5-32GB-48-SM</t>
+        </is>
+      </c>
+      <c r="F132" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G132" s="44" t="n">
+        <v>44</v>
+      </c>
+      <c r="H132" s="44" t="n">
+        <v>44</v>
+      </c>
+      <c r="I132" s="43" t="n">
+        <v>14</v>
+      </c>
+      <c r="J132" s="43" t="n">
+        <v>73</v>
+      </c>
+      <c r="K132" s="43" t="n">
+        <v>75</v>
+      </c>
+      <c r="L132" s="43" t="n">
+        <v>31</v>
+      </c>
+      <c r="M132" s="43" t="n">
+        <v>70</v>
+      </c>
+      <c r="N132" s="43" t="n">
+        <v>50</v>
+      </c>
+      <c r="O132" s="43" t="n">
+        <v>114</v>
+      </c>
+      <c r="P132" s="43" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Q132" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S132" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T132" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B133" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C133" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D133" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E133" s="43" t="inlineStr">
+        <is>
+          <t>Dust Cover-COM</t>
+        </is>
+      </c>
+      <c r="F133" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" s="44" t="n">
+        <v>250</v>
+      </c>
+      <c r="H133" s="44" t="n">
+        <v>250</v>
+      </c>
+      <c r="I133" s="43" t="n">
+        <v>88</v>
+      </c>
+      <c r="J133" s="43" t="n">
+        <v>344</v>
+      </c>
+      <c r="K133" s="43" t="n">
+        <v>366</v>
+      </c>
+      <c r="L133" s="43" t="n">
+        <v>116</v>
+      </c>
+      <c r="M133" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" s="43" t="n">
+        <v>80</v>
+      </c>
+      <c r="O133" s="43" t="n">
+        <v>250</v>
+      </c>
+      <c r="P133" s="43" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Q133" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S133" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T133" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B134" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C134" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D134" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E134" s="43" t="inlineStr">
+        <is>
+          <t>Dust Cover-DP</t>
+        </is>
+      </c>
+      <c r="F134" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="H134" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="I134" s="43" t="n">
+        <v>36</v>
+      </c>
+      <c r="J134" s="43" t="n">
+        <v>51</v>
+      </c>
+      <c r="K134" s="43" t="n">
+        <v>57</v>
+      </c>
+      <c r="L134" s="43" t="n">
+        <v>44</v>
+      </c>
+      <c r="M134" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="O134" s="43" t="n">
+        <v>13</v>
+      </c>
+      <c r="P134" s="43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q134" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="R134" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S134" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T134" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B135" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C135" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D135" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E135" s="43" t="inlineStr">
+        <is>
+          <t>Dust Cover-RJ45</t>
+        </is>
+      </c>
+      <c r="F135" s="43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" s="44" t="n">
+        <v>257</v>
+      </c>
+      <c r="H135" s="44" t="n">
+        <v>257</v>
+      </c>
+      <c r="I135" s="43" t="n">
+        <v>124</v>
+      </c>
+      <c r="J135" s="43" t="n">
+        <v>389</v>
+      </c>
+      <c r="K135" s="43" t="n">
+        <v>423</v>
+      </c>
+      <c r="L135" s="43" t="n">
+        <v>166</v>
+      </c>
+      <c r="M135" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" s="43" t="n">
+        <v>100</v>
+      </c>
+      <c r="O135" s="43" t="n">
+        <v>257</v>
+      </c>
+      <c r="P135" s="43" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="Q135" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S135" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T135" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B136" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C136" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D136" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E136" s="43" t="inlineStr">
+        <is>
+          <t>Dust Cover-USB-AF</t>
+        </is>
+      </c>
+      <c r="F136" s="43" t="n">
+        <v>12</v>
+      </c>
+      <c r="G136" s="44" t="n">
+        <v>474</v>
+      </c>
+      <c r="H136" s="44" t="n">
+        <v>474</v>
+      </c>
+      <c r="I136" s="43" t="n">
+        <v>164</v>
+      </c>
+      <c r="J136" s="43" t="n">
+        <v>654</v>
+      </c>
+      <c r="K136" s="43" t="n">
+        <v>698</v>
+      </c>
+      <c r="L136" s="43" t="n">
+        <v>224</v>
+      </c>
+      <c r="M136" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" s="43" t="n">
+        <v>100</v>
+      </c>
+      <c r="O136" s="43" t="n">
+        <v>474</v>
+      </c>
+      <c r="P136" s="43" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="Q136" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S136" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T136" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B137" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C137" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D137" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E137" s="43" t="inlineStr">
+        <is>
+          <t>Dust Cover-VGA-HDB15M</t>
+        </is>
+      </c>
+      <c r="F137" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" s="44" t="n">
+        <v>34</v>
+      </c>
+      <c r="H137" s="44" t="n">
+        <v>34</v>
+      </c>
+      <c r="I137" s="43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J137" s="43" t="n">
+        <v>52</v>
+      </c>
+      <c r="K137" s="43" t="n">
+        <v>58</v>
+      </c>
+      <c r="L137" s="43" t="n">
+        <v>24</v>
+      </c>
+      <c r="M137" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="O137" s="43" t="n">
+        <v>34</v>
+      </c>
+      <c r="P137" s="43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q137" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S137" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T137" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B138" s="36" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C138" s="36" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D138" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E138" s="36" t="inlineStr">
+        <is>
+          <t>GC-RTX5080-OC-MSI</t>
+        </is>
+      </c>
+      <c r="F138" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" s="37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H138" s="37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P138" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q138" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S138" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T138" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B139" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C139" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D139" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E139" s="43" t="inlineStr">
+        <is>
+          <t>M.280-SSD-2TB-PCIe44-TLC5ET-TD</t>
+        </is>
+      </c>
+      <c r="F139" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" s="43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K139" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="L139" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="M139" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" s="43" t="n">
+        <v>20</v>
+      </c>
+      <c r="O139" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P139" s="43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q139" s="41" t="n">
+        <v>11</v>
+      </c>
+      <c r="R139" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S139" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T139" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B140" s="36" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C140" s="36" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D140" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E140" s="36" t="inlineStr">
+        <is>
+          <t>Nuvo-10108GC</t>
+        </is>
+      </c>
+      <c r="F140" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" s="37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H140" s="37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I140" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K140" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M140" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P140" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S140" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T140" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B141" s="36" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C141" s="36" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D141" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E141" s="36" t="inlineStr">
+        <is>
+          <t>PA-600W-ENC</t>
+        </is>
+      </c>
+      <c r="F141" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" s="37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H141" s="37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I141" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="K141" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L141" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M141" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O141" s="36" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P141" s="36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q141" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R141" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S141" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T141" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="52" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B142" s="43" t="inlineStr">
+        <is>
+          <t>Outrun Robotics</t>
+        </is>
+      </c>
+      <c r="C142" s="43" t="inlineStr">
+        <is>
+          <t>NEOU-001</t>
+        </is>
+      </c>
+      <c r="D142" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251530</t>
+        </is>
+      </c>
+      <c r="E142" s="43" t="inlineStr">
+        <is>
+          <t>i9-14900</t>
+        </is>
+      </c>
+      <c r="F142" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="H142" s="44" t="n">
+        <v>12</v>
+      </c>
+      <c r="I142" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" s="43" t="n">
+        <v>21</v>
+      </c>
+      <c r="K142" s="43" t="n">
+        <v>21</v>
+      </c>
+      <c r="L142" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="M142" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" s="43" t="n">
+        <v>13</v>
+      </c>
+      <c r="P142" s="43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q142" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S142" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T142" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="49" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B143" s="32" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C143" s="32" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D143" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E143" s="32" t="inlineStr">
+        <is>
+          <t>AccsyBx-Cardholder-10208GC-5080</t>
+        </is>
+      </c>
+      <c r="F143" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" s="33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H143" s="33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S143" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T143" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="49" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B144" s="32" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C144" s="32" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D144" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E144" s="32" t="inlineStr">
+        <is>
+          <t>AccsyBx-FAN-Nuvo10208GC</t>
+        </is>
+      </c>
+      <c r="F144" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G144" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H144" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I144" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K144" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L144" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M144" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P144" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R144" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S144" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T144" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="49" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B145" s="32" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C145" s="32" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D145" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E145" s="32" t="inlineStr">
+        <is>
+          <t>GC-RTX5070-OC-MSI</t>
+        </is>
+      </c>
+      <c r="F145" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" s="33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H145" s="33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I145" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M145" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" s="32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P145" s="32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q145" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S145" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T145" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="51" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B146" s="39" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C146" s="39" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D146" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E146" s="39" t="inlineStr">
+        <is>
+          <t>M.280-SSD-1TB-PCIe44-TLC5WT-TD</t>
+        </is>
+      </c>
+      <c r="F146" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" s="40" t="n">
+        <v>-37</v>
+      </c>
+      <c r="I146" s="39" t="n">
+        <v>73</v>
+      </c>
+      <c r="J146" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="K146" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="L146" s="39" t="n">
+        <v>77</v>
+      </c>
+      <c r="M146" s="39" t="n">
+        <v>45</v>
+      </c>
+      <c r="N146" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="P146" s="39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q146" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="R146" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S146" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T146" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="51" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B147" s="39" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C147" s="39" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D147" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E147" s="39" t="inlineStr">
+        <is>
+          <t>Nuvo-10208GC-10G</t>
+        </is>
+      </c>
+      <c r="F147" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I147" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J147" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="K147" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="M147" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P147" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S147" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T147" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="51" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B148" s="39" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C148" s="39" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D148" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E148" s="39" t="inlineStr">
+        <is>
+          <t>TY-NVMe-Nuvo10208GC</t>
+        </is>
+      </c>
+      <c r="F148" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J148" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K148" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L148" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="M148" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P148" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R148" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S148" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T148" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="51" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B149" s="39" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C149" s="39" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D149" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E149" s="39" t="inlineStr">
+        <is>
+          <t>i9-14900</t>
+        </is>
+      </c>
+      <c r="F149" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G149" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="H149" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="I149" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" s="39" t="n">
+        <v>21</v>
+      </c>
+      <c r="K149" s="39" t="n">
+        <v>21</v>
+      </c>
+      <c r="L149" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="M149" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" s="39" t="n">
+        <v>13</v>
+      </c>
+      <c r="P149" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q149" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S149" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T149" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="49" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B150" s="32" t="inlineStr">
+        <is>
+          <t>Flyscan Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C150" s="32" t="inlineStr">
+        <is>
+          <t>FS251029-01</t>
+        </is>
+      </c>
+      <c r="D150" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251531</t>
+        </is>
+      </c>
+      <c r="E150" s="32" t="inlineStr">
+        <is>
+          <t>mPCIe-COM-2RS232-X203</t>
+        </is>
+      </c>
+      <c r="F150" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H150" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I150" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K150" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L150" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P150" s="32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q150" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R150" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S150" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T150" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B151" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C151" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D151" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E151" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-OW-OW2-Black-50CM1</t>
+        </is>
+      </c>
+      <c r="F151" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G151" s="37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H151" s="37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I151" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K151" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="L151" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="M151" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O151" s="36" t="n">
+        <v>-13</v>
+      </c>
+      <c r="P151" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q151" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="R151" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S151" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T151" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B152" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C152" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D152" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E152" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-OW-OW2-Red-50CM1</t>
+        </is>
+      </c>
+      <c r="F152" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G152" s="37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H152" s="37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I152" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K152" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="L152" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="M152" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O152" s="36" t="n">
+        <v>-13</v>
+      </c>
+      <c r="P152" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="R152" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S152" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T152" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B153" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C153" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D153" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E153" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-PC-OW3-180CM1</t>
+        </is>
+      </c>
+      <c r="F153" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G153" s="37" t="n">
+        <v>-19</v>
+      </c>
+      <c r="H153" s="37" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I153" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K153" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L153" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="M153" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" s="36" t="n">
+        <v>-19</v>
+      </c>
+      <c r="P153" s="36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q153" s="34" t="n">
+        <v>26</v>
+      </c>
+      <c r="R153" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S153" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T153" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B154" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C154" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D154" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E154" s="36" t="inlineStr">
+        <is>
+          <t>Gpubr-Nuvo9160-01</t>
+        </is>
+      </c>
+      <c r="F154" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G154" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H154" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I154" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K154" s="36" t="n">
+        <v>13</v>
+      </c>
+      <c r="L154" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M154" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" s="36" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P154" s="36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q154" s="34" t="n">
+        <v>37</v>
+      </c>
+      <c r="R154" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S154" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T154" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B155" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C155" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D155" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E155" s="36" t="inlineStr">
+        <is>
+          <t>Nuvo-9160GC</t>
+        </is>
+      </c>
+      <c r="F155" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G155" s="37" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H155" s="37" t="n">
+        <v>-24</v>
+      </c>
+      <c r="I155" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K155" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L155" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M155" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" s="36" t="n">
+        <v>-24</v>
+      </c>
+      <c r="P155" s="36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q155" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="R155" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S155" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T155" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B156" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C156" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D156" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E156" s="36" t="inlineStr">
+        <is>
+          <t>PA-600W-ENC</t>
+        </is>
+      </c>
+      <c r="F156" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G156" s="37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H156" s="37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I156" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="K156" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L156" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M156" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O156" s="36" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P156" s="36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q156" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R156" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S156" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T156" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="50" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B157" s="36" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="C157" s="36" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="D157" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="E157" s="36" t="inlineStr">
+        <is>
+          <t>i5-14500</t>
+        </is>
+      </c>
+      <c r="F157" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G157" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H157" s="37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I157" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K157" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L157" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="M157" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" s="36" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P157" s="36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q157" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R157" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S157" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T157" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>

--- a/Not_assigned_SO.xlsx
+++ b/Not_assigned_SO.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1035" yWindow="2175" windowWidth="28635" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-03" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SO_POD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T148"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -973,10 +973,10 @@
         <v>-20</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" s="34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" s="35" t="n">
         <v>73050</v>
@@ -1047,10 +1047,10 @@
         <v>-20</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="35" t="n">
         <v>73050</v>
@@ -1242,22 +1242,22 @@
         <v>10</v>
       </c>
       <c r="G8" s="33" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H8" s="33" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="I8" s="32" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="32" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="32" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" s="32" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="32" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>15</v>
       </c>
       <c r="O8" s="32" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" s="34" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R8" s="35" t="n">
         <v>73050</v>
@@ -1316,22 +1316,22 @@
         <v>10</v>
       </c>
       <c r="G9" s="33" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H9" s="33" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I9" s="32" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J9" s="32" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="32" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L9" s="32" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M9" s="32" t="n">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         <v>50</v>
       </c>
       <c r="O9" s="32" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q9" s="34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R9" s="35" t="n">
         <v>73050</v>
@@ -1390,22 +1390,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="33" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H10" s="33" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="I10" s="32" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J10" s="32" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K10" s="32" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L10" s="32" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M10" s="32" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>50</v>
       </c>
       <c r="O10" s="32" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q10" s="34" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R10" s="35" t="n">
         <v>73050</v>
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="G11" s="33" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="H11" s="33" t="n">
-        <v>-120</v>
+        <v>-124</v>
       </c>
       <c r="I11" s="32" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J11" s="32" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="32" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L11" s="32" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M11" s="32" t="n">
         <v>90</v>
@@ -1488,13 +1488,13 @@
         <v>50</v>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="Q11" s="34" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R11" s="35" t="n">
         <v>73050</v>
@@ -1565,10 +1565,10 @@
         <v>-20</v>
       </c>
       <c r="P12" s="36" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" s="34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R12" s="38" t="n">
         <v>73050</v>
@@ -1639,10 +1639,10 @@
         <v>-20</v>
       </c>
       <c r="P13" s="36" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R13" s="38" t="n">
         <v>73050</v>
@@ -1834,22 +1834,22 @@
         <v>10</v>
       </c>
       <c r="G16" s="37" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H16" s="37" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="I16" s="36" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J16" s="36" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="36" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L16" s="36" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="36" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>15</v>
       </c>
       <c r="O16" s="36" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="P16" s="36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q16" s="34" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R16" s="38" t="n">
         <v>73050</v>
@@ -1908,22 +1908,22 @@
         <v>10</v>
       </c>
       <c r="G17" s="37" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H17" s="37" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I17" s="36" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J17" s="36" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="36" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L17" s="36" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M17" s="36" t="n">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>50</v>
       </c>
       <c r="O17" s="36" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P17" s="36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q17" s="34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R17" s="38" t="n">
         <v>73050</v>
@@ -1982,22 +1982,22 @@
         <v>20</v>
       </c>
       <c r="G18" s="37" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H18" s="37" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="I18" s="36" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J18" s="36" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K18" s="36" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L18" s="36" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M18" s="36" t="n">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>50</v>
       </c>
       <c r="O18" s="36" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="P18" s="36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q18" s="34" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R18" s="38" t="n">
         <v>73050</v>
@@ -2056,22 +2056,22 @@
         <v>20</v>
       </c>
       <c r="G19" s="37" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="H19" s="37" t="n">
-        <v>-120</v>
+        <v>-124</v>
       </c>
       <c r="I19" s="36" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J19" s="36" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K19" s="36" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L19" s="36" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M19" s="36" t="n">
         <v>90</v>
@@ -2080,13 +2080,13 @@
         <v>50</v>
       </c>
       <c r="O19" s="36" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="P19" s="36" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="Q19" s="34" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R19" s="38" t="n">
         <v>73050</v>
@@ -2157,10 +2157,10 @@
         <v>-20</v>
       </c>
       <c r="P20" s="32" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" s="34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R20" s="35" t="n">
         <v>73050</v>
@@ -2231,10 +2231,10 @@
         <v>-20</v>
       </c>
       <c r="P21" s="32" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q21" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R21" s="35" t="n">
         <v>73050</v>
@@ -2426,22 +2426,22 @@
         <v>10</v>
       </c>
       <c r="G24" s="33" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H24" s="33" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="I24" s="32" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J24" s="32" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="32" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L24" s="32" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="32" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>15</v>
       </c>
       <c r="O24" s="32" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="P24" s="32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q24" s="34" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24" s="35" t="n">
         <v>73050</v>
@@ -2500,22 +2500,22 @@
         <v>10</v>
       </c>
       <c r="G25" s="33" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H25" s="33" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I25" s="32" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J25" s="32" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="32" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L25" s="32" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M25" s="32" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>50</v>
       </c>
       <c r="O25" s="32" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P25" s="32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q25" s="34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R25" s="35" t="n">
         <v>73050</v>
@@ -2574,22 +2574,22 @@
         <v>20</v>
       </c>
       <c r="G26" s="33" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H26" s="33" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="I26" s="32" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J26" s="32" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K26" s="32" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L26" s="32" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M26" s="32" t="n">
         <v>0</v>
@@ -2598,13 +2598,13 @@
         <v>50</v>
       </c>
       <c r="O26" s="32" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="P26" s="32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q26" s="34" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R26" s="35" t="n">
         <v>73050</v>
@@ -2648,22 +2648,22 @@
         <v>20</v>
       </c>
       <c r="G27" s="33" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>-120</v>
+        <v>-124</v>
       </c>
       <c r="I27" s="32" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J27" s="32" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K27" s="32" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L27" s="32" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M27" s="32" t="n">
         <v>90</v>
@@ -2672,13 +2672,13 @@
         <v>50</v>
       </c>
       <c r="O27" s="32" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="P27" s="32" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="Q27" s="34" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R27" s="35" t="n">
         <v>73050</v>
@@ -2749,7 +2749,7 @@
         <v>-14</v>
       </c>
       <c r="P28" s="36" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" s="34" t="n">
         <v>20</v>
@@ -2823,10 +2823,10 @@
         <v>-60</v>
       </c>
       <c r="P29" s="36" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" s="34" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R29" s="38" t="n">
         <v>73050</v>
@@ -2950,16 +2950,16 @@
         <v>34</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J31" s="39" t="n">
         <v>104</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M31" s="39" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>34</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="Q31" s="39" t="n">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>-19</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" s="39" t="n">
         <v>7</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M32" s="39" t="n">
         <v>25</v>
@@ -3045,7 +3045,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q32" s="39" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>50</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M33" s="39" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>50</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q33" s="39" t="n">
         <v>0</v>
@@ -3166,22 +3166,22 @@
         <v>5</v>
       </c>
       <c r="G34" s="40" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H34" s="40" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I34" s="39" t="n">
+        <v>26</v>
+      </c>
+      <c r="J34" s="39" t="n">
+        <v>152</v>
+      </c>
+      <c r="K34" s="39" t="n">
+        <v>155</v>
+      </c>
+      <c r="L34" s="39" t="n">
         <v>36</v>
-      </c>
-      <c r="J34" s="39" t="n">
-        <v>158</v>
-      </c>
-      <c r="K34" s="39" t="n">
-        <v>167</v>
-      </c>
-      <c r="L34" s="39" t="n">
-        <v>44</v>
       </c>
       <c r="M34" s="39" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>100</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="Q34" s="39" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>-4</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="39" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M35" s="39" t="n">
         <v>5</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q35" s="41" t="n">
         <v>1</v>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Q38" s="41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R38" s="42" t="n">
         <v>73050</v>
@@ -3536,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="40" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H39" s="40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I39" s="39" t="n">
         <v>110</v>
@@ -3551,7 +3551,7 @@
         <v>126</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M39" s="39" t="n">
         <v>132</v>
@@ -3560,10 +3560,10 @@
         <v>50</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q39" s="39" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="40" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H40" s="40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I40" s="39" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>36</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M40" s="39" t="n">
         <v>1</v>
@@ -3634,10 +3634,10 @@
         <v>30</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q40" s="39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q41" s="39" t="n">
         <v>0</v>
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q45" s="41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R45" s="42" t="n">
         <v>73050</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="40" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="I46" s="39" t="n">
         <v>23</v>
@@ -4069,22 +4069,22 @@
         <v>23</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N46" s="39" t="n">
         <v>0</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q46" s="41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R46" s="42" t="n">
         <v>73050</v>
@@ -4134,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="43" t="n">
         <v>3</v>
       </c>
       <c r="K47" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" s="43" t="n">
         <v>4</v>
@@ -4202,25 +4202,25 @@
         <v>2</v>
       </c>
       <c r="G48" s="37" t="n">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="H48" s="37" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="I48" s="36" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J48" s="36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K48" s="36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L48" s="36" t="n">
+        <v>48</v>
+      </c>
+      <c r="M48" s="36" t="n">
         <v>52</v>
-      </c>
-      <c r="M48" s="36" t="n">
-        <v>62</v>
       </c>
       <c r="N48" s="36" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>25</v>
       </c>
       <c r="P48" s="36" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Q48" s="36" t="n">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="36" t="n">
         <v>2</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="36" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="34" t="n">
         <v>4</v>
@@ -4356,16 +4356,16 @@
         <v>44</v>
       </c>
       <c r="I50" s="43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J50" s="43" t="n">
+        <v>63</v>
+      </c>
+      <c r="K50" s="43" t="n">
         <v>69</v>
       </c>
-      <c r="K50" s="43" t="n">
-        <v>73</v>
-      </c>
       <c r="L50" s="43" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M50" s="43" t="n">
         <v>70</v>
@@ -4377,7 +4377,7 @@
         <v>114</v>
       </c>
       <c r="P50" s="43" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q50" s="43" t="n">
         <v>0</v>
@@ -4471,76 +4471,76 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="50" t="n">
+      <c r="A52" s="52" t="n">
         <v>45953</v>
       </c>
-      <c r="B52" s="36" t="inlineStr">
+      <c r="B52" s="43" t="inlineStr">
         <is>
           <t>F.K. MACHINERY LTD.</t>
         </is>
       </c>
-      <c r="C52" s="36" t="inlineStr">
+      <c r="C52" s="43" t="inlineStr">
         <is>
           <t>4018670</t>
         </is>
       </c>
-      <c r="D52" s="36" t="inlineStr">
+      <c r="D52" s="43" t="inlineStr">
         <is>
           <t>SO-20251508</t>
         </is>
       </c>
-      <c r="E52" s="36" t="inlineStr">
+      <c r="E52" s="43" t="inlineStr">
         <is>
           <t>Win11IoT24-High</t>
         </is>
       </c>
-      <c r="F52" s="36" t="n">
+      <c r="F52" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I52" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" s="36" t="n">
+      <c r="G52" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="H52" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="I52" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="43" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" s="43" t="n">
+        <v>12</v>
+      </c>
+      <c r="L52" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="K52" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="L52" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="M52" s="36" t="n">
-        <v>10</v>
-      </c>
-      <c r="N52" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="36" t="n">
+      <c r="M52" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="P52" s="36" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q52" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S52" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T52" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
+      <c r="P52" s="43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q52" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S52" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T52" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
         </is>
       </c>
     </row>
@@ -4578,16 +4578,16 @@
         <v>-21</v>
       </c>
       <c r="I53" s="43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J53" s="43" t="n">
         <v>12</v>
       </c>
       <c r="K53" s="43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" s="43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M53" s="43" t="n">
         <v>40</v>
@@ -4599,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="P53" s="43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q53" s="43" t="n">
         <v>0</v>
@@ -4652,16 +4652,16 @@
         <v>8</v>
       </c>
       <c r="I54" s="43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J54" s="43" t="n">
         <v>21</v>
       </c>
       <c r="K54" s="43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L54" s="43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M54" s="43" t="n">
         <v>2</v>
@@ -4720,22 +4720,22 @@
         <v>2</v>
       </c>
       <c r="G55" s="37" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H55" s="37" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I55" s="36" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J55" s="36" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K55" s="36" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L55" s="36" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M55" s="36" t="n">
         <v>0</v>
@@ -4744,13 +4744,13 @@
         <v>50</v>
       </c>
       <c r="O55" s="36" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P55" s="36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q55" s="34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R55" s="38" t="n">
         <v>73050</v>
@@ -4794,22 +4794,22 @@
         <v>4</v>
       </c>
       <c r="G56" s="37" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="H56" s="37" t="n">
-        <v>-120</v>
+        <v>-124</v>
       </c>
       <c r="I56" s="36" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J56" s="36" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K56" s="36" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L56" s="36" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M56" s="36" t="n">
         <v>90</v>
@@ -4818,13 +4818,13 @@
         <v>50</v>
       </c>
       <c r="O56" s="36" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="P56" s="36" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="Q56" s="34" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R56" s="38" t="n">
         <v>73050</v>
@@ -4868,22 +4868,22 @@
         <v>4</v>
       </c>
       <c r="G57" s="37" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H57" s="37" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="I57" s="36" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J57" s="36" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K57" s="36" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L57" s="36" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M57" s="36" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>50</v>
       </c>
       <c r="O57" s="36" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="P57" s="36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q57" s="34" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R57" s="38" t="n">
         <v>73050</v>
@@ -4942,25 +4942,25 @@
         <v>2</v>
       </c>
       <c r="G58" s="33" t="n">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="H58" s="33" t="n">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="I58" s="32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K58" s="32" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L58" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="M58" s="32" t="n">
         <v>52</v>
-      </c>
-      <c r="M58" s="32" t="n">
-        <v>62</v>
       </c>
       <c r="N58" s="32" t="n">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>25</v>
       </c>
       <c r="P58" s="32" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Q58" s="32" t="n">
         <v>0</v>
@@ -5022,16 +5022,16 @@
         <v>36</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J59" s="39" t="n">
         <v>63</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M59" s="39" t="n">
         <v>64</v>
@@ -5043,7 +5043,7 @@
         <v>100</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q59" s="39" t="n">
         <v>0</v>
@@ -5090,22 +5090,22 @@
         <v>2</v>
       </c>
       <c r="G60" s="33" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="H60" s="33" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="I60" s="32" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60" s="32" t="n">
         <v>20</v>
       </c>
       <c r="K60" s="32" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L60" s="32" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M60" s="32" t="n">
         <v>32</v>
@@ -5114,13 +5114,13 @@
         <v>20</v>
       </c>
       <c r="O60" s="32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P60" s="32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q60" s="32" t="n">
-        <v>0</v>
+        <v>4.4</v>
+      </c>
+      <c r="Q60" s="34" t="n">
+        <v>1</v>
       </c>
       <c r="R60" s="35" t="n">
         <v>73050</v>
@@ -5211,76 +5211,76 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="51" t="n">
+      <c r="A62" s="49" t="n">
         <v>45953</v>
       </c>
-      <c r="B62" s="39" t="inlineStr">
+      <c r="B62" s="32" t="inlineStr">
         <is>
           <t>Keysight Technologies, Inc.</t>
         </is>
       </c>
-      <c r="C62" s="39" t="inlineStr">
+      <c r="C62" s="32" t="inlineStr">
         <is>
           <t>9080129269</t>
         </is>
       </c>
-      <c r="D62" s="39" t="inlineStr">
+      <c r="D62" s="32" t="inlineStr">
         <is>
           <t>SO-20251511</t>
         </is>
       </c>
-      <c r="E62" s="39" t="inlineStr">
+      <c r="E62" s="32" t="inlineStr">
         <is>
           <t>PA-280W-ET3</t>
         </is>
       </c>
-      <c r="F62" s="39" t="n">
+      <c r="F62" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="G62" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="39" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" s="39" t="n">
+      <c r="G62" s="33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H62" s="33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I62" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J62" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="K62" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="L62" s="39" t="n">
+      <c r="K62" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="L62" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="M62" s="39" t="n">
+      <c r="M62" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="N62" s="39" t="n">
+      <c r="N62" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="O62" s="39" t="n">
-        <v>37</v>
-      </c>
-      <c r="P62" s="39" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q62" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S62" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T62" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="O62" s="32" t="n">
+        <v>33</v>
+      </c>
+      <c r="P62" s="32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q62" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S62" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T62" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -5466,16 +5466,16 @@
         <v>12</v>
       </c>
       <c r="I65" s="43" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J65" s="43" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K65" s="43" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L65" s="43" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M65" s="43" t="n">
         <v>157</v>
@@ -5487,7 +5487,7 @@
         <v>169</v>
       </c>
       <c r="P65" s="43" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="Q65" s="43" t="n">
         <v>0</v>
@@ -5762,16 +5762,16 @@
         <v>44</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J69" s="39" t="n">
+        <v>63</v>
+      </c>
+      <c r="K69" s="39" t="n">
         <v>69</v>
       </c>
-      <c r="K69" s="39" t="n">
-        <v>73</v>
-      </c>
       <c r="L69" s="39" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M69" s="39" t="n">
         <v>70</v>
@@ -5783,7 +5783,7 @@
         <v>114</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q69" s="39" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>10</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q71" s="39" t="n">
         <v>0</v>
@@ -5981,10 +5981,10 @@
         <v>37</v>
       </c>
       <c r="H72" s="40" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J72" s="39" t="n">
         <v>48</v>
@@ -5993,10 +5993,10 @@
         <v>49</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" s="39" t="n">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>37</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Q72" s="39" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>8</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q73" s="41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R73" s="42" t="n">
         <v>73050</v>
@@ -6227,7 +6227,7 @@
         <v>-21</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q75" s="34" t="n">
         <v>31</v>
@@ -6292,19 +6292,19 @@
         <v>3</v>
       </c>
       <c r="M76" s="36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76" s="36" t="n">
         <v>0</v>
       </c>
       <c r="O76" s="36" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P76" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="Q76" s="34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R76" s="38" t="n">
         <v>73050</v>
@@ -6348,19 +6348,19 @@
         <v>3</v>
       </c>
       <c r="G77" s="44" t="n">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="H77" s="44" t="n">
-        <v>84</v>
+        <v>-93</v>
       </c>
       <c r="I77" s="43" t="n">
         <v>162</v>
       </c>
       <c r="J77" s="43" t="n">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="K77" s="43" t="n">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="L77" s="43" t="n">
         <v>165</v>
@@ -6372,13 +6372,13 @@
         <v>50</v>
       </c>
       <c r="O77" s="43" t="n">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="P77" s="43" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="Q77" s="43" t="n">
-        <v>0</v>
+        <v>18.6</v>
+      </c>
+      <c r="Q77" s="41" t="n">
+        <v>33</v>
       </c>
       <c r="R77" s="45" t="n">
         <v>73050</v>
@@ -6440,19 +6440,19 @@
         <v>1</v>
       </c>
       <c r="M78" s="36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="36" t="n">
         <v>0</v>
       </c>
       <c r="O78" s="36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" s="34" t="n">
-        <v>1</v>
+      <c r="Q78" s="36" t="n">
+        <v>0</v>
       </c>
       <c r="R78" s="38" t="n">
         <v>73050</v>
@@ -6502,16 +6502,16 @@
         <v>-41</v>
       </c>
       <c r="I79" s="43" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J79" s="43" t="n">
         <v>5</v>
       </c>
       <c r="K79" s="43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L79" s="43" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M79" s="43" t="n">
         <v>55</v>
@@ -6523,10 +6523,10 @@
         <v>14</v>
       </c>
       <c r="P79" s="43" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q79" s="41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R79" s="45" t="n">
         <v>73050</v>
@@ -6576,16 +6576,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M80" s="39" t="n">
         <v>0</v>
@@ -6650,16 +6650,16 @@
         <v>-19</v>
       </c>
       <c r="I81" s="32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" s="32" t="n">
         <v>8</v>
       </c>
       <c r="K81" s="32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L81" s="32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81" s="32" t="n">
         <v>50</v>
@@ -6671,7 +6671,7 @@
         <v>31</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Q81" s="32" t="n">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>11</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J82" s="39" t="n">
         <v>15</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M82" s="39" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>11</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q82" s="41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" s="42" t="n">
         <v>73050</v>
@@ -6798,16 +6798,16 @@
         <v>11</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" s="39" t="n">
         <v>15</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M83" s="39" t="n">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>11</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q83" s="41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R83" s="42" t="n">
         <v>73050</v>
@@ -6872,16 +6872,16 @@
         <v>44</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J84" s="39" t="n">
+        <v>63</v>
+      </c>
+      <c r="K84" s="39" t="n">
         <v>69</v>
       </c>
-      <c r="K84" s="39" t="n">
-        <v>73</v>
-      </c>
       <c r="L84" s="39" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M84" s="39" t="n">
         <v>70</v>
@@ -6893,7 +6893,7 @@
         <v>114</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q84" s="39" t="n">
         <v>0</v>
@@ -6946,16 +6946,16 @@
         <v>242</v>
       </c>
       <c r="I85" s="39" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="L85" s="39" t="n">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="M85" s="39" t="n">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>242</v>
       </c>
       <c r="P85" s="39" t="n">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="Q85" s="39" t="n">
         <v>0</v>
@@ -7020,16 +7020,16 @@
         <v>11</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M86" s="39" t="n">
         <v>0</v>
@@ -7041,10 +7041,10 @@
         <v>11</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Q86" s="41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R86" s="42" t="n">
         <v>73050</v>
@@ -7094,16 +7094,16 @@
         <v>245</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="M87" s="39" t="n">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>245</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>22.8</v>
+        <v>25</v>
       </c>
       <c r="Q87" s="39" t="n">
         <v>0</v>
@@ -7168,16 +7168,16 @@
         <v>458</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>690</v>
+        <v>594</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="M88" s="39" t="n">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>458</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>32.1</v>
+        <v>35.2</v>
       </c>
       <c r="Q88" s="39" t="n">
         <v>0</v>
@@ -7242,16 +7242,16 @@
         <v>32</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M89" s="39" t="n">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>32</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q89" s="39" t="n">
         <v>0</v>
@@ -7328,19 +7328,19 @@
         <v>2</v>
       </c>
       <c r="M90" s="32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90" s="32" t="n">
         <v>0</v>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P90" s="32" t="n">
         <v>0.1</v>
       </c>
       <c r="Q90" s="34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R90" s="35" t="n">
         <v>73050</v>
@@ -7390,16 +7390,16 @@
         <v>1</v>
       </c>
       <c r="I91" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K91" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L91" s="39" t="n">
         <v>3</v>
-      </c>
-      <c r="J91" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K91" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="L91" s="39" t="n">
-        <v>5</v>
       </c>
       <c r="M91" s="39" t="n">
         <v>1</v>
@@ -7411,10 +7411,10 @@
         <v>2</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q91" s="41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R91" s="42" t="n">
         <v>73050</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="I92" s="32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" s="32" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92" s="32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M92" s="32" t="n">
         <v>3</v>
@@ -7485,10 +7485,10 @@
         <v>2</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q92" s="34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R92" s="35" t="n">
         <v>73050</v>
@@ -7538,16 +7538,16 @@
         <v>-20</v>
       </c>
       <c r="I93" s="32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J93" s="32" t="n">
         <v>12</v>
       </c>
       <c r="K93" s="32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L93" s="32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M93" s="32" t="n">
         <v>42</v>
@@ -7559,7 +7559,7 @@
         <v>22</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q93" s="32" t="n">
         <v>0</v>
@@ -7606,22 +7606,22 @@
         <v>2</v>
       </c>
       <c r="G94" s="40" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H94" s="40" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" s="39" t="n">
         <v>19</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M94" s="39" t="n">
         <v>1</v>
@@ -7630,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q94" s="41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R94" s="42" t="n">
         <v>73050</v>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K96" s="36" t="n">
         <v>5</v>
@@ -7834,31 +7834,31 @@
         <v>-4</v>
       </c>
       <c r="I97" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" s="36" t="n">
         <v>0</v>
       </c>
       <c r="K97" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97" s="36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M97" s="36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N97" s="36" t="n">
         <v>0</v>
       </c>
       <c r="O97" s="36" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P97" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="Q97" s="34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R97" s="38" t="n">
         <v>73050</v>
@@ -7908,16 +7908,16 @@
         <v>-37</v>
       </c>
       <c r="I98" s="43" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J98" s="43" t="n">
         <v>14</v>
       </c>
       <c r="K98" s="43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L98" s="43" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M98" s="43" t="n">
         <v>45</v>
@@ -7929,7 +7929,7 @@
         <v>8</v>
       </c>
       <c r="P98" s="43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q98" s="41" t="n">
         <v>9</v>
@@ -7985,7 +7985,7 @@
         <v>8</v>
       </c>
       <c r="J99" s="43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K99" s="43" t="n">
         <v>15</v>
@@ -8003,10 +8003,10 @@
         <v>3</v>
       </c>
       <c r="P99" s="43" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q99" s="41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R99" s="45" t="n">
         <v>73050</v>
@@ -8059,7 +8059,7 @@
         <v>8</v>
       </c>
       <c r="J100" s="43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K100" s="43" t="n">
         <v>14</v>
@@ -8124,22 +8124,22 @@
         <v>4</v>
       </c>
       <c r="G101" s="44" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H101" s="44" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I101" s="43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" s="43" t="n">
         <v>19</v>
       </c>
       <c r="K101" s="43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L101" s="43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M101" s="43" t="n">
         <v>1</v>
@@ -8148,13 +8148,13 @@
         <v>0</v>
       </c>
       <c r="O101" s="43" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P101" s="43" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q101" s="41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R101" s="45" t="n">
         <v>73050</v>
@@ -8299,7 +8299,7 @@
         <v>27</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q103" s="32" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>27</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q104" s="32" t="n">
         <v>0</v>
@@ -8426,16 +8426,16 @@
         <v>-19</v>
       </c>
       <c r="I105" s="32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="32" t="n">
         <v>8</v>
       </c>
       <c r="K105" s="32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L105" s="32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M105" s="32" t="n">
         <v>50</v>
@@ -8447,7 +8447,7 @@
         <v>31</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Q105" s="32" t="n">
         <v>0</v>
@@ -8500,16 +8500,16 @@
         <v>-21</v>
       </c>
       <c r="I106" s="39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J106" s="39" t="n">
         <v>12</v>
       </c>
       <c r="K106" s="39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L106" s="39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M106" s="39" t="n">
         <v>40</v>
@@ -8521,7 +8521,7 @@
         <v>19</v>
       </c>
       <c r="P106" s="39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q106" s="39" t="n">
         <v>0</v>
@@ -8595,10 +8595,10 @@
         <v>8</v>
       </c>
       <c r="P107" s="39" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q107" s="41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R107" s="42" t="n">
         <v>73050</v>
@@ -8648,16 +8648,16 @@
         <v>-20</v>
       </c>
       <c r="I108" s="32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J108" s="32" t="n">
         <v>12</v>
       </c>
       <c r="K108" s="32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L108" s="32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M108" s="32" t="n">
         <v>42</v>
@@ -8669,7 +8669,7 @@
         <v>22</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q108" s="32" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>-21</v>
       </c>
       <c r="P109" s="32" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q109" s="34" t="n">
         <v>31</v>
@@ -8790,22 +8790,22 @@
         <v>1</v>
       </c>
       <c r="G110" s="44" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H110" s="44" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I110" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J110" s="43" t="n">
+        <v>152</v>
+      </c>
+      <c r="K110" s="43" t="n">
+        <v>155</v>
+      </c>
+      <c r="L110" s="43" t="n">
         <v>36</v>
-      </c>
-      <c r="J110" s="43" t="n">
-        <v>158</v>
-      </c>
-      <c r="K110" s="43" t="n">
-        <v>167</v>
-      </c>
-      <c r="L110" s="43" t="n">
-        <v>44</v>
       </c>
       <c r="M110" s="43" t="n">
         <v>0</v>
@@ -8814,10 +8814,10 @@
         <v>100</v>
       </c>
       <c r="O110" s="43" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P110" s="43" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="Q110" s="43" t="n">
         <v>0</v>
@@ -8944,31 +8944,31 @@
         <v>-21</v>
       </c>
       <c r="I112" s="43" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J112" s="43" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K112" s="43" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L112" s="43" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M112" s="43" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N112" s="43" t="n">
         <v>50</v>
       </c>
       <c r="O112" s="43" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="P112" s="43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q112" s="43" t="n">
-        <v>0</v>
+        <v>7.2</v>
+      </c>
+      <c r="Q112" s="41" t="n">
+        <v>6</v>
       </c>
       <c r="R112" s="45" t="n">
         <v>73050</v>
@@ -9039,10 +9039,10 @@
         <v>-20</v>
       </c>
       <c r="P113" s="36" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q113" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R113" s="38" t="n">
         <v>73050</v>
@@ -9113,7 +9113,7 @@
         <v>45</v>
       </c>
       <c r="P114" s="43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="Q114" s="43" t="n">
         <v>0</v>
@@ -9133,76 +9133,76 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="52" t="n">
+      <c r="A115" s="50" t="n">
         <v>45959</v>
       </c>
-      <c r="B115" s="43" t="inlineStr">
+      <c r="B115" s="36" t="inlineStr">
         <is>
           <t>Axon Enterprise Inc.</t>
         </is>
       </c>
-      <c r="C115" s="43" t="inlineStr">
+      <c r="C115" s="36" t="inlineStr">
         <is>
           <t>PUS0056984</t>
         </is>
       </c>
-      <c r="D115" s="43" t="inlineStr">
+      <c r="D115" s="36" t="inlineStr">
         <is>
           <t>SO-20251533</t>
         </is>
       </c>
-      <c r="E115" s="43" t="inlineStr">
+      <c r="E115" s="36" t="inlineStr">
         <is>
           <t>PA-280W-ET3</t>
         </is>
       </c>
-      <c r="F115" s="43" t="n">
+      <c r="F115" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G115" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J115" s="43" t="n">
+      <c r="G115" s="37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H115" s="37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I115" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J115" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="K115" s="43" t="n">
-        <v>22</v>
-      </c>
-      <c r="L115" s="43" t="n">
+      <c r="K115" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="L115" s="36" t="n">
         <v>21</v>
       </c>
-      <c r="M115" s="43" t="n">
+      <c r="M115" s="36" t="n">
         <v>36</v>
       </c>
-      <c r="N115" s="43" t="n">
+      <c r="N115" s="36" t="n">
         <v>20</v>
       </c>
-      <c r="O115" s="43" t="n">
-        <v>37</v>
-      </c>
-      <c r="P115" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q115" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S115" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T115" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="O115" s="36" t="n">
+        <v>33</v>
+      </c>
+      <c r="P115" s="36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q115" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S115" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T115" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -9335,7 +9335,7 @@
         <v>15</v>
       </c>
       <c r="P117" s="43" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q117" s="43" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>22</v>
       </c>
       <c r="P118" s="39" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q118" s="39" t="n">
         <v>0</v>
@@ -9474,19 +9474,19 @@
         <v>8</v>
       </c>
       <c r="M119" s="32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N119" s="32" t="n">
         <v>0</v>
       </c>
       <c r="O119" s="32" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="P119" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q119" s="34" t="n">
-        <v>4</v>
+      <c r="Q119" s="32" t="n">
+        <v>0</v>
       </c>
       <c r="R119" s="35" t="n">
         <v>73050</v>
@@ -9557,7 +9557,7 @@
         <v>15</v>
       </c>
       <c r="P120" s="39" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q120" s="39" t="n">
         <v>0</v>
@@ -9610,16 +9610,16 @@
         <v>15</v>
       </c>
       <c r="I121" s="39" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J121" s="39" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K121" s="39" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L121" s="39" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M121" s="39" t="n">
         <v>2</v>
@@ -9631,7 +9631,7 @@
         <v>17</v>
       </c>
       <c r="P121" s="39" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q121" s="39" t="n">
         <v>0</v>
@@ -9678,25 +9678,25 @@
         <v>3</v>
       </c>
       <c r="G122" s="33" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H122" s="33" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I122" s="32" t="n">
         <v>5</v>
       </c>
       <c r="J122" s="32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K122" s="32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L122" s="32" t="n">
         <v>8</v>
       </c>
       <c r="M122" s="32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N122" s="32" t="n">
         <v>0</v>
@@ -9705,7 +9705,7 @@
         <v>-3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q122" s="34" t="n">
         <v>9</v>
@@ -9725,150 +9725,150 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="52" t="n">
+      <c r="A123" s="50" t="n">
         <v>45960</v>
       </c>
-      <c r="B123" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C123" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D123" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E123" s="43" t="inlineStr">
-        <is>
-          <t>Cbl-PC-TW-180CM1</t>
-        </is>
-      </c>
-      <c r="F123" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G123" s="44" t="n">
-        <v>126</v>
-      </c>
-      <c r="H123" s="44" t="n">
-        <v>123</v>
-      </c>
-      <c r="I123" s="43" t="n">
-        <v>36</v>
-      </c>
-      <c r="J123" s="43" t="n">
-        <v>158</v>
-      </c>
-      <c r="K123" s="43" t="n">
-        <v>167</v>
-      </c>
-      <c r="L123" s="43" t="n">
-        <v>44</v>
-      </c>
-      <c r="M123" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="O123" s="43" t="n">
-        <v>123</v>
-      </c>
-      <c r="P123" s="43" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="Q123" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R123" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S123" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T123" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="B123" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C123" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D123" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E123" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-W40M-M12A8F-40CM-IK-DIO1</t>
+        </is>
+      </c>
+      <c r="F123" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H123" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M123" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q123" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S123" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T123" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="52" t="n">
+      <c r="A124" s="50" t="n">
         <v>45960</v>
       </c>
-      <c r="B124" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C124" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D124" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E124" s="43" t="inlineStr">
-        <is>
-          <t>DDR5-16GB-56-SM</t>
-        </is>
-      </c>
-      <c r="F124" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="G124" s="44" t="n">
-        <v>43</v>
-      </c>
-      <c r="H124" s="44" t="n">
-        <v>36</v>
-      </c>
-      <c r="I124" s="43" t="n">
-        <v>27</v>
-      </c>
-      <c r="J124" s="43" t="n">
-        <v>63</v>
-      </c>
-      <c r="K124" s="43" t="n">
-        <v>71</v>
-      </c>
-      <c r="L124" s="43" t="n">
-        <v>35</v>
-      </c>
-      <c r="M124" s="43" t="n">
-        <v>64</v>
-      </c>
-      <c r="N124" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="P124" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R124" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S124" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T124" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="B124" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C124" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D124" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E124" s="36" t="inlineStr">
+        <is>
+          <t>Cblkit-NRU-172S-PPC</t>
+        </is>
+      </c>
+      <c r="F124" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H124" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M124" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S124" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T124" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
@@ -9878,577 +9878,577 @@
       </c>
       <c r="B125" s="43" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Centre de technologies avancées BRP- CTA</t>
         </is>
       </c>
       <c r="C125" s="43" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t>CA-004647</t>
         </is>
       </c>
       <c r="D125" s="43" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251539</t>
         </is>
       </c>
       <c r="E125" s="43" t="inlineStr">
         <is>
-          <t>DINRAIL-O</t>
+          <t>DtC-M12-WP</t>
         </is>
       </c>
       <c r="F125" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="44" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I125" s="43" t="n">
+        <v>23</v>
+      </c>
+      <c r="J125" s="43" t="n">
+        <v>23</v>
+      </c>
+      <c r="K125" s="43" t="n">
+        <v>23</v>
+      </c>
+      <c r="L125" s="43" t="n">
+        <v>38</v>
+      </c>
+      <c r="M125" s="43" t="n">
+        <v>20</v>
+      </c>
+      <c r="N125" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P125" s="43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q125" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R125" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S125" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T125" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="50" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B126" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C126" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D126" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E126" s="36" t="inlineStr">
+        <is>
+          <t>M.242-SSD-128GB-PCIe34-TLC5WT-TD</t>
+        </is>
+      </c>
+      <c r="F126" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H126" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M126" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S126" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T126" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="50" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B127" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C127" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D127" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E127" s="36" t="inlineStr">
+        <is>
+          <t>NRU-172S-PPC-JON16-NS</t>
+        </is>
+      </c>
+      <c r="F127" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M127" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S127" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T127" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="50" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B128" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C128" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D128" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E128" s="36" t="inlineStr">
+        <is>
+          <t>RPnl-M12-NRU-172S-PPC</t>
+        </is>
+      </c>
+      <c r="F128" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G128" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H128" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M128" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S128" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T128" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="50" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B129" s="36" t="inlineStr">
+        <is>
+          <t>Centre de technologies avancées BRP- CTA</t>
+        </is>
+      </c>
+      <c r="C129" s="36" t="inlineStr">
+        <is>
+          <t>CA-004647</t>
+        </is>
+      </c>
+      <c r="D129" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251539</t>
+        </is>
+      </c>
+      <c r="E129" s="36" t="inlineStr">
+        <is>
+          <t>mPCIe-DIO-0D01</t>
+        </is>
+      </c>
+      <c r="F129" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H129" s="37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M129" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q129" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S129" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T129" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="49" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B130" s="32" t="inlineStr">
+        <is>
+          <t>GS Engineering, Inc.</t>
+        </is>
+      </c>
+      <c r="C130" s="32" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D130" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251541</t>
+        </is>
+      </c>
+      <c r="E130" s="32" t="inlineStr">
+        <is>
+          <t>AC-IMX390-H120</t>
+        </is>
+      </c>
+      <c r="F130" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H130" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I130" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" s="32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q130" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S130" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T130" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="50" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B131" s="36" t="inlineStr">
+        <is>
+          <t>Planted Solar</t>
+        </is>
+      </c>
+      <c r="C131" s="36" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="D131" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251542</t>
+        </is>
+      </c>
+      <c r="E131" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-M12A5M-DB9M-180CM</t>
+        </is>
+      </c>
+      <c r="F131" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M131" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" s="36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q131" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="G125" s="44" t="n">
-        <v>12</v>
-      </c>
-      <c r="H125" s="44" t="n">
-        <v>12</v>
-      </c>
-      <c r="I125" s="43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J125" s="43" t="n">
-        <v>18</v>
-      </c>
-      <c r="K125" s="43" t="n">
-        <v>25</v>
-      </c>
-      <c r="L125" s="43" t="n">
-        <v>13</v>
-      </c>
-      <c r="M125" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="43" t="n">
-        <v>10</v>
-      </c>
-      <c r="O125" s="43" t="n">
-        <v>12</v>
-      </c>
-      <c r="P125" s="43" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q125" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="R125" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S125" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T125" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B126" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C126" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D126" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E126" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-COM</t>
-        </is>
-      </c>
-      <c r="F126" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="G126" s="44" t="n">
-        <v>242</v>
-      </c>
-      <c r="H126" s="44" t="n">
-        <v>242</v>
-      </c>
-      <c r="I126" s="43" t="n">
-        <v>108</v>
-      </c>
-      <c r="J126" s="43" t="n">
-        <v>338</v>
-      </c>
-      <c r="K126" s="43" t="n">
-        <v>362</v>
-      </c>
-      <c r="L126" s="43" t="n">
-        <v>120</v>
-      </c>
-      <c r="M126" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" s="43" t="n">
-        <v>80</v>
-      </c>
-      <c r="O126" s="43" t="n">
-        <v>242</v>
-      </c>
-      <c r="P126" s="43" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Q126" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R126" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S126" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T126" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B127" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C127" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D127" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E127" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-DP</t>
-        </is>
-      </c>
-      <c r="F127" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G127" s="44" t="n">
-        <v>11</v>
-      </c>
-      <c r="H127" s="44" t="n">
-        <v>11</v>
-      </c>
-      <c r="I127" s="43" t="n">
-        <v>41</v>
-      </c>
-      <c r="J127" s="43" t="n">
-        <v>51</v>
-      </c>
-      <c r="K127" s="43" t="n">
-        <v>56</v>
-      </c>
-      <c r="L127" s="43" t="n">
-        <v>45</v>
-      </c>
-      <c r="M127" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" s="43" t="n">
-        <v>30</v>
-      </c>
-      <c r="O127" s="43" t="n">
-        <v>11</v>
-      </c>
-      <c r="P127" s="43" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q127" s="41" t="n">
-        <v>8</v>
-      </c>
-      <c r="R127" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S127" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T127" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B128" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C128" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D128" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E128" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-DVI</t>
-        </is>
-      </c>
-      <c r="F128" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G128" s="44" t="n">
-        <v>21</v>
-      </c>
-      <c r="H128" s="44" t="n">
-        <v>21</v>
-      </c>
-      <c r="I128" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="J128" s="43" t="n">
-        <v>39</v>
-      </c>
-      <c r="K128" s="43" t="n">
-        <v>43</v>
-      </c>
-      <c r="L128" s="43" t="n">
-        <v>22</v>
-      </c>
-      <c r="M128" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" s="43" t="n">
-        <v>30</v>
-      </c>
-      <c r="O128" s="43" t="n">
-        <v>21</v>
-      </c>
-      <c r="P128" s="43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q128" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S128" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T128" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B129" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C129" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D129" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E129" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-RJ45</t>
-        </is>
-      </c>
-      <c r="F129" s="43" t="n">
-        <v>12</v>
-      </c>
-      <c r="G129" s="44" t="n">
-        <v>245</v>
-      </c>
-      <c r="H129" s="44" t="n">
-        <v>245</v>
-      </c>
-      <c r="I129" s="43" t="n">
-        <v>154</v>
-      </c>
-      <c r="J129" s="43" t="n">
-        <v>389</v>
-      </c>
-      <c r="K129" s="43" t="n">
-        <v>417</v>
-      </c>
-      <c r="L129" s="43" t="n">
-        <v>172</v>
-      </c>
-      <c r="M129" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="O129" s="43" t="n">
-        <v>245</v>
-      </c>
-      <c r="P129" s="43" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="Q129" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S129" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T129" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B130" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C130" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D130" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E130" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-USB-AF</t>
-        </is>
-      </c>
-      <c r="F130" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="G130" s="44" t="n">
-        <v>458</v>
-      </c>
-      <c r="H130" s="44" t="n">
-        <v>458</v>
-      </c>
-      <c r="I130" s="43" t="n">
-        <v>204</v>
-      </c>
-      <c r="J130" s="43" t="n">
-        <v>654</v>
-      </c>
-      <c r="K130" s="43" t="n">
-        <v>690</v>
-      </c>
-      <c r="L130" s="43" t="n">
-        <v>232</v>
-      </c>
-      <c r="M130" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="O130" s="43" t="n">
-        <v>458</v>
-      </c>
-      <c r="P130" s="43" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="Q130" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S130" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T130" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B131" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C131" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D131" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E131" s="43" t="inlineStr">
-        <is>
-          <t>Dust Cover-USB-CF</t>
-        </is>
-      </c>
-      <c r="F131" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G131" s="44" t="n">
-        <v>92</v>
-      </c>
-      <c r="H131" s="44" t="n">
-        <v>92</v>
-      </c>
-      <c r="I131" s="43" t="n">
-        <v>12</v>
-      </c>
-      <c r="J131" s="43" t="n">
-        <v>102</v>
-      </c>
-      <c r="K131" s="43" t="n">
-        <v>106</v>
-      </c>
-      <c r="L131" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="M131" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" s="43" t="n">
-        <v>92</v>
-      </c>
-      <c r="P131" s="43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q131" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S131" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T131" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
+      <c r="R131" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S131" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T131" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="52" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B132" s="43" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Planted Solar</t>
         </is>
       </c>
       <c r="C132" s="43" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D132" s="43" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251542</t>
         </is>
       </c>
       <c r="E132" s="43" t="inlineStr">
         <is>
-          <t>Dust Cover-VGA-HDB15M</t>
+          <t>Cbl-M12S4F-OW4-180CM1</t>
         </is>
       </c>
       <c r="F132" s="43" t="n">
         <v>2</v>
       </c>
       <c r="G132" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="44" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I132" s="43" t="n">
+        <v>50</v>
+      </c>
+      <c r="J132" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="43" t="n">
+        <v>20</v>
+      </c>
+      <c r="L132" s="43" t="n">
+        <v>52</v>
+      </c>
+      <c r="M132" s="43" t="n">
         <v>32</v>
       </c>
-      <c r="H132" s="44" t="n">
-        <v>32</v>
-      </c>
-      <c r="I132" s="43" t="n">
-        <v>21</v>
-      </c>
-      <c r="J132" s="43" t="n">
-        <v>52</v>
-      </c>
-      <c r="K132" s="43" t="n">
-        <v>57</v>
-      </c>
-      <c r="L132" s="43" t="n">
-        <v>25</v>
-      </c>
-      <c r="M132" s="43" t="n">
-        <v>0</v>
-      </c>
       <c r="N132" s="43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O132" s="43" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P132" s="43" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q132" s="43" t="n">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="Q132" s="41" t="n">
+        <v>2</v>
       </c>
       <c r="R132" s="45" t="n">
         <v>73050</v>
@@ -10465,212 +10465,212 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B133" s="43" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C133" s="43" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D133" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E133" s="43" t="inlineStr">
-        <is>
-          <t>M.280-SSD-1TB-PCIe4-TLCWT-IK1</t>
-        </is>
-      </c>
-      <c r="F133" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G133" s="44" t="n">
-        <v>37</v>
-      </c>
-      <c r="H133" s="44" t="n">
-        <v>37</v>
-      </c>
-      <c r="I133" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J133" s="43" t="n">
-        <v>48</v>
-      </c>
-      <c r="K133" s="43" t="n">
-        <v>49</v>
-      </c>
-      <c r="L133" s="43" t="n">
+      <c r="A133" s="50" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B133" s="36" t="inlineStr">
+        <is>
+          <t>Planted Solar</t>
+        </is>
+      </c>
+      <c r="C133" s="36" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="D133" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251542</t>
+        </is>
+      </c>
+      <c r="E133" s="36" t="inlineStr">
+        <is>
+          <t>Cbl-W4F-M12A5F-40CM-IK-CAN</t>
+        </is>
+      </c>
+      <c r="F133" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" s="37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M133" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S133" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T133" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B134" s="43" t="inlineStr">
+        <is>
+          <t>Planted Solar</t>
+        </is>
+      </c>
+      <c r="C134" s="43" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="D134" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251542</t>
+        </is>
+      </c>
+      <c r="E134" s="43" t="inlineStr">
+        <is>
+          <t>DDR4-16GB-WT32-SM</t>
+        </is>
+      </c>
+      <c r="F134" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" s="44" t="n">
+        <v>80</v>
+      </c>
+      <c r="H134" s="44" t="n">
+        <v>76</v>
+      </c>
+      <c r="I134" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="M133" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" s="43" t="n">
-        <v>37</v>
-      </c>
-      <c r="P133" s="43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q133" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S133" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T133" s="43" t="inlineStr">
+      <c r="J134" s="43" t="n">
+        <v>91</v>
+      </c>
+      <c r="K134" s="43" t="n">
+        <v>92</v>
+      </c>
+      <c r="L134" s="43" t="n">
+        <v>16</v>
+      </c>
+      <c r="M134" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N134" s="43" t="n">
+        <v>50</v>
+      </c>
+      <c r="O134" s="43" t="n">
+        <v>80</v>
+      </c>
+      <c r="P134" s="43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q134" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S134" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T134" s="43" t="inlineStr">
         <is>
           <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B134" s="36" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="C134" s="36" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="D134" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="E134" s="36" t="inlineStr">
-        <is>
-          <t>Nuvo-9006DE-PoE-UL</t>
-        </is>
-      </c>
-      <c r="F134" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G134" s="37" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H134" s="37" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I134" s="36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K134" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="L134" s="36" t="n">
-        <v>9</v>
-      </c>
-      <c r="M134" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N134" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P134" s="36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q134" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="R134" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S134" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T134" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="52" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B135" s="43" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Planted Solar</t>
         </is>
       </c>
       <c r="C135" s="43" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D135" s="43" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251542</t>
         </is>
       </c>
       <c r="E135" s="43" t="inlineStr">
         <is>
-          <t>PA-280W-ET3</t>
+          <t>DtC-M12-WP</t>
         </is>
       </c>
       <c r="F135" s="43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G135" s="44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="44" t="n">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="I135" s="43" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J135" s="43" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K135" s="43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L135" s="43" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M135" s="43" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N135" s="43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O135" s="43" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="P135" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q135" s="43" t="n">
-        <v>0</v>
+        <v>2.2</v>
+      </c>
+      <c r="Q135" s="41" t="n">
+        <v>4</v>
       </c>
       <c r="R135" s="45" t="n">
         <v>73050</v>
@@ -10688,63 +10688,63 @@
     </row>
     <row r="136">
       <c r="A136" s="52" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B136" s="43" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Planted Solar</t>
         </is>
       </c>
       <c r="C136" s="43" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D136" s="43" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251542</t>
         </is>
       </c>
       <c r="E136" s="43" t="inlineStr">
         <is>
-          <t>SSD-1TB-TLC5ET-TD</t>
+          <t>M.280-SSD-1TB-PCIe4-TLCWT-IK1</t>
         </is>
       </c>
       <c r="F136" s="43" t="n">
         <v>2</v>
       </c>
       <c r="G136" s="44" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H136" s="44" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I136" s="43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J136" s="43" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K136" s="43" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L136" s="43" t="n">
         <v>14</v>
       </c>
       <c r="M136" s="43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N136" s="43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O136" s="43" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="P136" s="43" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="Q136" s="41" t="n">
-        <v>27</v>
+        <v>1.1</v>
+      </c>
+      <c r="Q136" s="43" t="n">
+        <v>0</v>
       </c>
       <c r="R136" s="45" t="n">
         <v>73050</v>
@@ -10762,887 +10762,2145 @@
     </row>
     <row r="137">
       <c r="A137" s="50" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B137" s="36" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Planted Solar</t>
         </is>
       </c>
       <c r="C137" s="36" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D137" s="36" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251542</t>
         </is>
       </c>
       <c r="E137" s="36" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>Pnl-2M12-SEMIL17</t>
         </is>
       </c>
       <c r="F137" s="36" t="n">
         <v>2</v>
       </c>
       <c r="G137" s="37" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="H137" s="37" t="n">
-        <v>-37</v>
+        <v>-2</v>
       </c>
       <c r="I137" s="36" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S137" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T137" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B138" s="43" t="inlineStr">
+        <is>
+          <t>Planted Solar</t>
+        </is>
+      </c>
+      <c r="C138" s="43" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="D138" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251542</t>
+        </is>
+      </c>
+      <c r="E138" s="43" t="inlineStr">
+        <is>
+          <t>SEMIL-1708</t>
+        </is>
+      </c>
+      <c r="F138" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I138" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K138" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M138" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" s="43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q138" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R138" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S138" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T138" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B139" s="43" t="inlineStr">
+        <is>
+          <t>Planted Solar</t>
+        </is>
+      </c>
+      <c r="C139" s="43" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="D139" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251542</t>
+        </is>
+      </c>
+      <c r="E139" s="43" t="inlineStr">
+        <is>
+          <t>i7-9700E</t>
+        </is>
+      </c>
+      <c r="F139" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" s="44" t="n">
+        <v>15</v>
+      </c>
+      <c r="H139" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="I139" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="K139" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="K137" s="36" t="n">
+      <c r="O139" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="L137" s="36" t="n">
-        <v>52</v>
-      </c>
-      <c r="M137" s="36" t="n">
-        <v>62</v>
-      </c>
-      <c r="N137" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" s="36" t="n">
-        <v>25</v>
-      </c>
-      <c r="P137" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q137" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S137" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T137" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="51" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B138" s="39" t="inlineStr">
-        <is>
-          <t>Emergent Vision Technologies Inc.</t>
-        </is>
-      </c>
-      <c r="C138" s="39" t="inlineStr">
-        <is>
-          <t>6944.1</t>
-        </is>
-      </c>
-      <c r="D138" s="39" t="inlineStr">
-        <is>
-          <t>SO-20251538</t>
-        </is>
-      </c>
-      <c r="E138" s="39" t="inlineStr">
-        <is>
-          <t>PCIe-PoE572bt</t>
-        </is>
-      </c>
-      <c r="F138" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" s="40" t="n">
-        <v>8</v>
-      </c>
-      <c r="H138" s="40" t="n">
-        <v>8</v>
-      </c>
-      <c r="I138" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="K138" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="L138" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M138" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="P138" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S138" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T138" s="39" t="inlineStr">
+      <c r="P139" s="43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q139" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S139" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T139" s="43" t="inlineStr">
         <is>
           <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B139" s="36" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C139" s="36" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D139" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E139" s="36" t="inlineStr">
-        <is>
-          <t>Cbl-W40M-M12A8F-40CM-IK-DIO1</t>
-        </is>
-      </c>
-      <c r="F139" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G139" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H139" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I139" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M139" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N139" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" s="36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P139" s="36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q139" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="R139" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S139" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T139" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="50" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B140" s="36" t="inlineStr">
         <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
+          <t>Planted Solar</t>
         </is>
       </c>
       <c r="C140" s="36" t="inlineStr">
         <is>
-          <t>CA-004647</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D140" s="36" t="inlineStr">
         <is>
-          <t>SO-20251539</t>
+          <t>SO-20251542</t>
         </is>
       </c>
       <c r="E140" s="36" t="inlineStr">
         <is>
-          <t>Cblkit-NRU-172S-PPC</t>
+          <t>mPCIe-CAN-B2S1</t>
         </is>
       </c>
       <c r="F140" s="36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G140" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S140" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T140" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="51" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B141" s="39" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C141" s="39" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D141" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E141" s="39" t="inlineStr">
+        <is>
+          <t>Cbl-PC-TW-180CM1</t>
+        </is>
+      </c>
+      <c r="F141" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" s="40" t="n">
+        <v>122</v>
+      </c>
+      <c r="H141" s="40" t="n">
+        <v>119</v>
+      </c>
+      <c r="I141" s="39" t="n">
+        <v>26</v>
+      </c>
+      <c r="J141" s="39" t="n">
+        <v>152</v>
+      </c>
+      <c r="K141" s="39" t="n">
+        <v>155</v>
+      </c>
+      <c r="L141" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="M141" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="O141" s="39" t="n">
+        <v>119</v>
+      </c>
+      <c r="P141" s="39" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Q141" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S141" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T141" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="51" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B142" s="39" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C142" s="39" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D142" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E142" s="39" t="inlineStr">
+        <is>
+          <t>DDR5-16GB-WT48-IK</t>
+        </is>
+      </c>
+      <c r="F142" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G142" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H142" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="I142" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" s="39" t="n">
+        <v>47</v>
+      </c>
+      <c r="K142" s="39" t="n">
+        <v>48</v>
+      </c>
+      <c r="L142" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="M142" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="P142" s="39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q142" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S142" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T142" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="51" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B143" s="39" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C143" s="39" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D143" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E143" s="39" t="inlineStr">
+        <is>
+          <t>M.280-SSD-512GB-PCIe44-TLC5WT-TD</t>
+        </is>
+      </c>
+      <c r="F143" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" s="40" t="n">
+        <v>33</v>
+      </c>
+      <c r="H143" s="40" t="n">
+        <v>32</v>
+      </c>
+      <c r="I143" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="K143" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="L143" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M143" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="O143" s="39" t="n">
+        <v>33</v>
+      </c>
+      <c r="P143" s="39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q143" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S143" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T143" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="51" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B144" s="39" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C144" s="39" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D144" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E144" s="39" t="inlineStr">
+        <is>
+          <t>Nuvo-9006DE</t>
+        </is>
+      </c>
+      <c r="F144" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q144" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S144" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T144" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="49" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B145" s="32" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C145" s="32" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D145" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E145" s="32" t="inlineStr">
+        <is>
+          <t>PA-280W-ET3</t>
+        </is>
+      </c>
+      <c r="F145" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" s="33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H145" s="33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I145" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J145" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K145" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="L145" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="M145" s="32" t="n">
+        <v>36</v>
+      </c>
+      <c r="N145" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="O145" s="32" t="n">
+        <v>33</v>
+      </c>
+      <c r="P145" s="32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q145" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S145" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T145" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="49" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B146" s="32" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C146" s="32" t="inlineStr">
+        <is>
+          <t>PO1259</t>
+        </is>
+      </c>
+      <c r="D146" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251543</t>
+        </is>
+      </c>
+      <c r="E146" s="32" t="inlineStr">
+        <is>
+          <t>PCIe-PoE454at</t>
+        </is>
+      </c>
+      <c r="F146" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" s="33" t="n">
         <v>-5</v>
       </c>
-      <c r="H140" s="37" t="n">
+      <c r="H146" s="33" t="n">
         <v>-5</v>
       </c>
-      <c r="I140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" s="36" t="n">
+      <c r="I146" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="K146" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="L146" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="M146" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="32" t="n">
         <v>-5</v>
       </c>
-      <c r="P140" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q140" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R140" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S140" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T140" s="36" t="inlineStr">
+      <c r="P146" s="32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q146" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="R146" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S146" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T146" s="32" t="inlineStr">
         <is>
           <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B141" s="43" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C141" s="43" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D141" s="43" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E141" s="43" t="inlineStr">
-        <is>
-          <t>DtC-M12-WP</t>
-        </is>
-      </c>
-      <c r="F141" s="43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G141" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" s="44" t="n">
-        <v>-11</v>
-      </c>
-      <c r="I141" s="43" t="n">
-        <v>23</v>
-      </c>
-      <c r="J141" s="43" t="n">
-        <v>23</v>
-      </c>
-      <c r="K141" s="43" t="n">
-        <v>23</v>
-      </c>
-      <c r="L141" s="43" t="n">
-        <v>34</v>
-      </c>
-      <c r="M141" s="43" t="n">
-        <v>11</v>
-      </c>
-      <c r="N141" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q141" s="41" t="n">
-        <v>8</v>
-      </c>
-      <c r="R141" s="45" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S141" s="43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T141" s="43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B142" s="36" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C142" s="36" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D142" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E142" s="36" t="inlineStr">
-        <is>
-          <t>M.242-SSD-128GB-PCIe34-TLC5WT-TD</t>
-        </is>
-      </c>
-      <c r="F142" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G142" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H142" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" s="36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P142" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R142" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S142" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T142" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B143" s="36" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C143" s="36" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D143" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E143" s="36" t="inlineStr">
-        <is>
-          <t>NRU-172S-PPC-JON16-NS</t>
-        </is>
-      </c>
-      <c r="F143" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G143" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H143" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" s="36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P143" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R143" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S143" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T143" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B144" s="36" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C144" s="36" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D144" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E144" s="36" t="inlineStr">
-        <is>
-          <t>RPnl-M12-NRU-172S-PPC</t>
-        </is>
-      </c>
-      <c r="F144" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G144" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H144" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" s="36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P144" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R144" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S144" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T144" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B145" s="36" t="inlineStr">
-        <is>
-          <t>Centre de technologies avancées BRP- CTA</t>
-        </is>
-      </c>
-      <c r="C145" s="36" t="inlineStr">
-        <is>
-          <t>CA-004647</t>
-        </is>
-      </c>
-      <c r="D145" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251539</t>
-        </is>
-      </c>
-      <c r="E145" s="36" t="inlineStr">
-        <is>
-          <t>mPCIe-DIO-0D01</t>
-        </is>
-      </c>
-      <c r="F145" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G145" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H145" s="37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I145" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M145" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" s="36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P145" s="36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q145" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="R145" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S145" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T145" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="51" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B146" s="39" t="inlineStr">
-        <is>
-          <t>CoastIPC, Inc.</t>
-        </is>
-      </c>
-      <c r="C146" s="39" t="inlineStr">
-        <is>
-          <t>P97023</t>
-        </is>
-      </c>
-      <c r="D146" s="39" t="inlineStr">
-        <is>
-          <t>SO-20251540</t>
-        </is>
-      </c>
-      <c r="E146" s="39" t="inlineStr">
-        <is>
-          <t>Nuvo-7006LP-PoE</t>
-        </is>
-      </c>
-      <c r="F146" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J146" s="39" t="n">
-        <v>7</v>
-      </c>
-      <c r="K146" s="39" t="n">
-        <v>7</v>
-      </c>
-      <c r="L146" s="39" t="n">
-        <v>7</v>
-      </c>
-      <c r="M146" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N146" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="O146" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="P146" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q146" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S146" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T146" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="51" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B147" s="39" t="inlineStr">
         <is>
-          <t>CoastIPC, Inc.</t>
+          <t>RDI Technologies</t>
         </is>
       </c>
       <c r="C147" s="39" t="inlineStr">
         <is>
-          <t>P97023</t>
+          <t>PO1259</t>
         </is>
       </c>
       <c r="D147" s="39" t="inlineStr">
         <is>
-          <t>SO-20251540</t>
+          <t>SO-20251543</t>
         </is>
       </c>
       <c r="E147" s="39" t="inlineStr">
         <is>
-          <t>i7-9700E</t>
+          <t>i9-14900</t>
         </is>
       </c>
       <c r="F147" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="H147" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I147" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="G147" s="40" t="n">
+      <c r="J147" s="39" t="n">
+        <v>19</v>
+      </c>
+      <c r="K147" s="39" t="n">
+        <v>19</v>
+      </c>
+      <c r="L147" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="M147" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="P147" s="39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q147" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="R147" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S147" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T147" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B148" s="43" t="inlineStr">
+        <is>
+          <t>LASERAX INC</t>
+        </is>
+      </c>
+      <c r="C148" s="43" t="inlineStr">
+        <is>
+          <t>00506191(1)</t>
+        </is>
+      </c>
+      <c r="D148" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251545</t>
+        </is>
+      </c>
+      <c r="E148" s="43" t="inlineStr">
+        <is>
+          <t>M.280-SSD-256GB-SATA-TLC5WT-TD</t>
+        </is>
+      </c>
+      <c r="F148" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I148" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="K148" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L148" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="M148" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O148" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="P148" s="43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q148" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S148" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T148" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="49" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B149" s="32" t="inlineStr">
+        <is>
+          <t>RDI Technologies</t>
+        </is>
+      </c>
+      <c r="C149" s="32" t="inlineStr">
+        <is>
+          <t>PO1260</t>
+        </is>
+      </c>
+      <c r="D149" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251546</t>
+        </is>
+      </c>
+      <c r="E149" s="32" t="inlineStr">
+        <is>
+          <t>PCIe-PoE454at</t>
+        </is>
+      </c>
+      <c r="F149" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" s="33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H149" s="33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I149" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="K149" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="L149" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="M149" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" s="32" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P149" s="32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q149" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="R149" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S149" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T149" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B150" s="43" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C150" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D150" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E150" s="43" t="inlineStr">
+        <is>
+          <t>Cbl-PC-TW-180CM1</t>
+        </is>
+      </c>
+      <c r="F150" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="44" t="n">
+        <v>122</v>
+      </c>
+      <c r="H150" s="44" t="n">
+        <v>119</v>
+      </c>
+      <c r="I150" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J150" s="43" t="n">
+        <v>152</v>
+      </c>
+      <c r="K150" s="43" t="n">
+        <v>155</v>
+      </c>
+      <c r="L150" s="43" t="n">
+        <v>36</v>
+      </c>
+      <c r="M150" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" s="43" t="n">
+        <v>100</v>
+      </c>
+      <c r="O150" s="43" t="n">
+        <v>119</v>
+      </c>
+      <c r="P150" s="43" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Q150" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S150" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T150" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B151" s="43" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C151" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D151" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E151" s="43" t="inlineStr">
+        <is>
+          <t>DDR5-32GB-48WT-SM</t>
+        </is>
+      </c>
+      <c r="F151" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="44" t="n">
+        <v>94</v>
+      </c>
+      <c r="H151" s="44" t="n">
+        <v>12</v>
+      </c>
+      <c r="I151" s="43" t="n">
+        <v>110</v>
+      </c>
+      <c r="J151" s="43" t="n">
+        <v>110</v>
+      </c>
+      <c r="K151" s="43" t="n">
+        <v>126</v>
+      </c>
+      <c r="L151" s="43" t="n">
+        <v>114</v>
+      </c>
+      <c r="M151" s="43" t="n">
+        <v>132</v>
+      </c>
+      <c r="N151" s="43" t="n">
+        <v>50</v>
+      </c>
+      <c r="O151" s="43" t="n">
+        <v>144</v>
+      </c>
+      <c r="P151" s="43" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q151" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S151" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T151" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B152" s="43" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C152" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D152" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E152" s="43" t="inlineStr">
+        <is>
+          <t>Nuvo-9002E</t>
+        </is>
+      </c>
+      <c r="F152" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H152" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K152" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L152" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P152" s="43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q152" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S152" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T152" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="50" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B153" s="36" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C153" s="36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D153" s="36" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E153" s="36" t="inlineStr">
+        <is>
+          <t>PA-280W-ET3</t>
+        </is>
+      </c>
+      <c r="F153" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H153" s="37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I153" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J153" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="H147" s="40" t="n">
+      <c r="K153" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="L153" s="36" t="n">
+        <v>21</v>
+      </c>
+      <c r="M153" s="36" t="n">
+        <v>36</v>
+      </c>
+      <c r="N153" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O153" s="36" t="n">
+        <v>33</v>
+      </c>
+      <c r="P153" s="36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q153" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" s="38" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S153" s="36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T153" s="36" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B154" s="43" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C154" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D154" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E154" s="43" t="inlineStr">
+        <is>
+          <t>PCIe-10G550X</t>
+        </is>
+      </c>
+      <c r="F154" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="H154" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I154" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L154" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="O154" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P154" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S154" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T154" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="52" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B155" s="43" t="inlineStr">
+        <is>
+          <t>VTG</t>
+        </is>
+      </c>
+      <c r="C155" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_VTG_2510162</t>
+        </is>
+      </c>
+      <c r="D155" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251548</t>
+        </is>
+      </c>
+      <c r="E155" s="43" t="inlineStr">
+        <is>
+          <t>i9-14900</t>
+        </is>
+      </c>
+      <c r="F155" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="H155" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I155" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="K155" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="L155" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="M155" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="P155" s="43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q155" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" s="45" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S155" s="43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T155" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B156" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C156" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D156" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E156" s="32" t="inlineStr">
+        <is>
+          <t>Ant-RP_SMAM-WiFi-196MM1</t>
+        </is>
+      </c>
+      <c r="F156" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" s="33" t="n">
+        <v>-34</v>
+      </c>
+      <c r="H156" s="33" t="n">
+        <v>-124</v>
+      </c>
+      <c r="I156" s="32" t="n">
+        <v>173</v>
+      </c>
+      <c r="J156" s="32" t="n">
+        <v>87</v>
+      </c>
+      <c r="K156" s="32" t="n">
+        <v>117</v>
+      </c>
+      <c r="L156" s="32" t="n">
+        <v>241</v>
+      </c>
+      <c r="M156" s="32" t="n">
+        <v>90</v>
+      </c>
+      <c r="N156" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="O156" s="32" t="n">
+        <v>-34</v>
+      </c>
+      <c r="P156" s="32" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="Q156" s="34" t="n">
+        <v>101</v>
+      </c>
+      <c r="R156" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S156" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T156" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B157" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C157" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D157" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E157" s="32" t="inlineStr">
+        <is>
+          <t>Cbl-MHF-RP_SMAF-30CM</t>
+        </is>
+      </c>
+      <c r="F157" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" s="33" t="n">
+        <v>-18</v>
+      </c>
+      <c r="H157" s="33" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I157" s="32" t="n">
+        <v>72</v>
+      </c>
+      <c r="J157" s="32" t="n">
+        <v>102</v>
+      </c>
+      <c r="K157" s="32" t="n">
+        <v>122</v>
+      </c>
+      <c r="L157" s="32" t="n">
+        <v>140</v>
+      </c>
+      <c r="M157" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="O157" s="32" t="n">
+        <v>-18</v>
+      </c>
+      <c r="P157" s="32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q157" s="34" t="n">
+        <v>58</v>
+      </c>
+      <c r="R157" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S157" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T157" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B158" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C158" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D158" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E158" s="32" t="inlineStr">
+        <is>
+          <t>DDR5-8GB-56-SM</t>
+        </is>
+      </c>
+      <c r="F158" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H158" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I158" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" s="32" t="n">
+        <v>29</v>
+      </c>
+      <c r="N158" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" s="32" t="n">
+        <v>27</v>
+      </c>
+      <c r="P158" s="32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q158" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S158" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T158" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="51" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B159" s="39" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C159" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D159" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E159" s="39" t="inlineStr">
+        <is>
+          <t>DINRAIL-O</t>
+        </is>
+      </c>
+      <c r="F159" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H159" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I159" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J159" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="K159" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="L159" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="M159" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O159" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="P159" s="39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q159" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="R159" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S159" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T159" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B160" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C160" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D160" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E160" s="32" t="inlineStr">
+        <is>
+          <t>Extnd-mPCIeHS</t>
+        </is>
+      </c>
+      <c r="F160" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" s="33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H160" s="33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I160" s="32" t="n">
+        <v>42</v>
+      </c>
+      <c r="J160" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="K160" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="L160" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="M160" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="O160" s="32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="P160" s="32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q160" s="34" t="n">
+        <v>34</v>
+      </c>
+      <c r="R160" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S160" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T160" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B161" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C161" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D161" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E161" s="32" t="inlineStr">
+        <is>
+          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+        </is>
+      </c>
+      <c r="F161" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" s="33" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H161" s="33" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I161" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="J161" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="K161" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="L161" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="M161" s="32" t="n">
+        <v>32</v>
+      </c>
+      <c r="N161" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="O161" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="P161" s="32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q161" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S161" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T161" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B162" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C162" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D162" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E162" s="32" t="inlineStr">
+        <is>
+          <t>Nuvo-9006LP-PoE-UL</t>
+        </is>
+      </c>
+      <c r="F162" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H162" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I162" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q162" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S162" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T162" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="51" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B163" s="39" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C163" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D163" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E163" s="39" t="inlineStr">
+        <is>
+          <t>Win10IoT21-Value</t>
+        </is>
+      </c>
+      <c r="F163" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K163" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L163" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P163" s="39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q163" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" s="42" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S163" s="39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T163" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B164" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C164" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D164" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E164" s="32" t="inlineStr">
+        <is>
+          <t>i5-12500</t>
+        </is>
+      </c>
+      <c r="F164" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H164" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I164" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P164" s="32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q164" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S164" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T164" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="49" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B165" s="32" t="inlineStr">
+        <is>
+          <t>SAM Analytic Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="C165" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
+        </is>
+      </c>
+      <c r="D165" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251549</t>
+        </is>
+      </c>
+      <c r="E165" s="32" t="inlineStr">
+        <is>
+          <t>mPCIeHS-WiFi-121N</t>
+        </is>
+      </c>
+      <c r="F165" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G165" s="33" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H165" s="33" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I165" s="32" t="n">
+        <v>31</v>
+      </c>
+      <c r="J165" s="32" t="n">
+        <v>36</v>
+      </c>
+      <c r="K165" s="32" t="n">
+        <v>46</v>
+      </c>
+      <c r="L165" s="32" t="n">
+        <v>63</v>
+      </c>
+      <c r="M165" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="I147" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" s="39" t="n">
-        <v>18</v>
-      </c>
-      <c r="K147" s="39" t="n">
-        <v>18</v>
-      </c>
-      <c r="L147" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="M147" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="O147" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="P147" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q147" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R147" s="42" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S147" s="39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T147" s="39" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="50" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B148" s="36" t="inlineStr">
-        <is>
-          <t>GS Engineering, Inc.</t>
-        </is>
-      </c>
-      <c r="C148" s="36" t="inlineStr">
-        <is>
-          <t>7005</t>
-        </is>
-      </c>
-      <c r="D148" s="36" t="inlineStr">
-        <is>
-          <t>SO-20251541</t>
-        </is>
-      </c>
-      <c r="E148" s="36" t="inlineStr">
-        <is>
-          <t>AC-IMX390-H120</t>
-        </is>
-      </c>
-      <c r="F148" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H148" s="37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I148" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P148" s="36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q148" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R148" s="38" t="n">
-        <v>73050</v>
-      </c>
-      <c r="S148" s="36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T148" s="36" t="inlineStr">
+      <c r="O165" s="32" t="n">
+        <v>-17</v>
+      </c>
+      <c r="P165" s="32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q165" s="34" t="n">
+        <v>28</v>
+      </c>
+      <c r="R165" s="35" t="n">
+        <v>73050</v>
+      </c>
+      <c r="S165" s="32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T165" s="32" t="inlineStr">
         <is>
           <t>Shortage</t>
         </is>

--- a/Not_assigned_SO.xlsx
+++ b/Not_assigned_SO.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1035" yWindow="2175" windowWidth="28635" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-14" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SO_POD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -874,7 +874,7 @@
         <v>-14</v>
       </c>
       <c r="K3" s="43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L3" s="43" t="n">
         <v>5</v>
@@ -1012,7 +1012,7 @@
         <v>-32</v>
       </c>
       <c r="K5" s="32" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L5" s="32" t="n">
         <v>37</v>
@@ -1081,7 +1081,7 @@
         <v>-47</v>
       </c>
       <c r="K6" s="32" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L6" s="32" t="n">
         <v>80</v>
@@ -1150,7 +1150,7 @@
         <v>-102</v>
       </c>
       <c r="K7" s="32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L7" s="32" t="n">
         <v>62</v>
@@ -1219,7 +1219,7 @@
         <v>-20</v>
       </c>
       <c r="K8" s="32" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L8" s="32" t="n">
         <v>33</v>
@@ -1288,7 +1288,7 @@
         <v>-13</v>
       </c>
       <c r="K9" s="39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L9" s="39" t="n">
         <v>43</v>
@@ -1357,7 +1357,7 @@
         <v>-25</v>
       </c>
       <c r="K10" s="32" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L10" s="32" t="n">
         <v>74</v>
@@ -1426,7 +1426,7 @@
         <v>-36</v>
       </c>
       <c r="K11" s="32" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L11" s="32" t="n">
         <v>164</v>
@@ -1564,7 +1564,7 @@
         <v>-32</v>
       </c>
       <c r="K13" s="36" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L13" s="36" t="n">
         <v>37</v>
@@ -1633,7 +1633,7 @@
         <v>-47</v>
       </c>
       <c r="K14" s="36" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L14" s="36" t="n">
         <v>80</v>
@@ -1702,7 +1702,7 @@
         <v>-102</v>
       </c>
       <c r="K15" s="36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L15" s="36" t="n">
         <v>62</v>
@@ -1771,7 +1771,7 @@
         <v>-20</v>
       </c>
       <c r="K16" s="36" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L16" s="36" t="n">
         <v>33</v>
@@ -1840,7 +1840,7 @@
         <v>-13</v>
       </c>
       <c r="K17" s="43" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L17" s="43" t="n">
         <v>43</v>
@@ -1909,7 +1909,7 @@
         <v>-25</v>
       </c>
       <c r="K18" s="36" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L18" s="36" t="n">
         <v>74</v>
@@ -1978,7 +1978,7 @@
         <v>-36</v>
       </c>
       <c r="K19" s="36" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L19" s="36" t="n">
         <v>164</v>
@@ -2116,7 +2116,7 @@
         <v>-32</v>
       </c>
       <c r="K21" s="32" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L21" s="32" t="n">
         <v>37</v>
@@ -2185,7 +2185,7 @@
         <v>-47</v>
       </c>
       <c r="K22" s="32" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L22" s="32" t="n">
         <v>80</v>
@@ -2254,7 +2254,7 @@
         <v>-102</v>
       </c>
       <c r="K23" s="32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L23" s="32" t="n">
         <v>62</v>
@@ -2323,7 +2323,7 @@
         <v>-20</v>
       </c>
       <c r="K24" s="32" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L24" s="32" t="n">
         <v>33</v>
@@ -2392,7 +2392,7 @@
         <v>-13</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L25" s="39" t="n">
         <v>43</v>
@@ -2461,7 +2461,7 @@
         <v>-25</v>
       </c>
       <c r="K26" s="32" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L26" s="32" t="n">
         <v>74</v>
@@ -2530,7 +2530,7 @@
         <v>-36</v>
       </c>
       <c r="K27" s="32" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L27" s="32" t="n">
         <v>164</v>
@@ -2806,7 +2806,7 @@
         <v>49</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L31" s="39" t="n">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>78</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L33" s="39" t="n">
         <v>18</v>
@@ -3013,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L34" s="39" t="n">
         <v>9</v>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L36" s="39" t="n">
         <v>30</v>
@@ -3220,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L37" s="39" t="n">
         <v>10</v>
@@ -3289,7 +3289,7 @@
         <v>-13</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L38" s="39" t="n">
         <v>43</v>
@@ -3358,7 +3358,7 @@
         <v>-36</v>
       </c>
       <c r="K39" s="32" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L39" s="32" t="n">
         <v>164</v>
@@ -3427,7 +3427,7 @@
         <v>-25</v>
       </c>
       <c r="K40" s="32" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L40" s="32" t="n">
         <v>74</v>
@@ -3496,7 +3496,7 @@
         <v>49</v>
       </c>
       <c r="K41" s="43" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L41" s="43" t="n">
         <v>9</v>
@@ -3634,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="K43" s="43" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L43" s="43" t="n">
         <v>53</v>
@@ -3772,7 +3772,7 @@
         <v>21</v>
       </c>
       <c r="K45" s="43" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L45" s="43" t="n">
         <v>12</v>
@@ -3979,7 +3979,7 @@
         <v>-36</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L48" s="39" t="n">
         <v>53</v>
@@ -4945,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L62" s="39" t="n">
         <v>50</v>
@@ -5014,7 +5014,7 @@
         <v>15</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="L63" s="39" t="n">
         <v>50</v>
@@ -5152,7 +5152,7 @@
         <v>53</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L65" s="39" t="n">
         <v>1</v>
@@ -5290,7 +5290,7 @@
         <v>93</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="L67" s="39" t="n">
         <v>41</v>
@@ -5635,7 +5635,7 @@
         <v>90</v>
       </c>
       <c r="K72" s="43" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L72" s="43" t="n">
         <v>102</v>
@@ -5773,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="K74" s="43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L74" s="43" t="n">
         <v>14</v>
@@ -6325,7 +6325,7 @@
         <v>-36</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L82" s="39" t="n">
         <v>53</v>
@@ -6463,7 +6463,7 @@
         <v>-2</v>
       </c>
       <c r="K84" s="43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L84" s="43" t="n">
         <v>3</v>
@@ -6532,7 +6532,7 @@
         <v>-36</v>
       </c>
       <c r="K85" s="43" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L85" s="43" t="n">
         <v>53</v>
@@ -6946,7 +6946,7 @@
         <v>78</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L91" s="39" t="n">
         <v>18</v>
@@ -7015,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L92" s="39" t="n">
         <v>53</v>
@@ -7153,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L94" s="39" t="n">
         <v>13</v>
@@ -7222,7 +7222,7 @@
         <v>222</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L95" s="39" t="n">
         <v>44</v>
@@ -7291,7 +7291,7 @@
         <v>406</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="L96" s="39" t="n">
         <v>96</v>
@@ -7360,7 +7360,7 @@
         <v>91</v>
       </c>
       <c r="K97" s="39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L97" s="39" t="n">
         <v>8</v>
@@ -7429,7 +7429,7 @@
         <v>20</v>
       </c>
       <c r="K98" s="39" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L98" s="39" t="n">
         <v>8</v>
@@ -7498,7 +7498,7 @@
         <v>29</v>
       </c>
       <c r="K99" s="39" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L99" s="39" t="n">
         <v>11</v>
@@ -7567,7 +7567,7 @@
         <v>225</v>
       </c>
       <c r="K100" s="39" t="n">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="L100" s="39" t="n">
         <v>62</v>
@@ -7636,7 +7636,7 @@
         <v>-35</v>
       </c>
       <c r="K101" s="39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L101" s="39" t="n">
         <v>36</v>
@@ -7981,7 +7981,7 @@
         <v>80</v>
       </c>
       <c r="K106" s="43" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L106" s="43" t="n">
         <v>16</v>
@@ -8188,7 +8188,7 @@
         <v>80</v>
       </c>
       <c r="K109" s="39" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L109" s="39" t="n">
         <v>16</v>
@@ -8395,7 +8395,7 @@
         <v>80</v>
       </c>
       <c r="K112" s="43" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L112" s="43" t="n">
         <v>16</v>
@@ -8533,7 +8533,7 @@
         <v>-2</v>
       </c>
       <c r="K114" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L114" s="39" t="n">
         <v>3</v>
@@ -8602,7 +8602,7 @@
         <v>-3</v>
       </c>
       <c r="K115" s="39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L115" s="39" t="n">
         <v>35</v>
@@ -8671,7 +8671,7 @@
         <v>15</v>
       </c>
       <c r="K116" s="39" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L116" s="39" t="n">
         <v>4</v>
@@ -8740,7 +8740,7 @@
         <v>-3</v>
       </c>
       <c r="K117" s="39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117" s="39" t="n">
         <v>2</v>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="K118" s="39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L118" s="39" t="n">
         <v>7</v>
@@ -8878,7 +8878,7 @@
         <v>93</v>
       </c>
       <c r="K119" s="39" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="L119" s="39" t="n">
         <v>41</v>
@@ -8947,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L120" s="39" t="n">
         <v>2</v>
@@ -9016,7 +9016,7 @@
         <v>-47</v>
       </c>
       <c r="K121" s="32" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L121" s="32" t="n">
         <v>80</v>
@@ -9292,7 +9292,7 @@
         <v>6</v>
       </c>
       <c r="K125" s="43" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L125" s="43" t="n">
         <v>49</v>
@@ -9430,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="K127" s="39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L127" s="39" t="n">
         <v>9</v>
@@ -9499,7 +9499,7 @@
         <v>90</v>
       </c>
       <c r="K128" s="39" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L128" s="39" t="n">
         <v>102</v>
@@ -9568,7 +9568,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="39" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L129" s="39" t="n">
         <v>59</v>
@@ -9775,7 +9775,7 @@
         <v>225</v>
       </c>
       <c r="K132" s="39" t="n">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="L132" s="39" t="n">
         <v>62</v>
@@ -9844,7 +9844,7 @@
         <v>222</v>
       </c>
       <c r="K133" s="39" t="n">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L133" s="39" t="n">
         <v>44</v>
@@ -9913,7 +9913,7 @@
         <v>406</v>
       </c>
       <c r="K134" s="39" t="n">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="L134" s="39" t="n">
         <v>96</v>
@@ -9982,7 +9982,7 @@
         <v>29</v>
       </c>
       <c r="K135" s="39" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L135" s="39" t="n">
         <v>11</v>
@@ -10051,7 +10051,7 @@
         <v>4</v>
       </c>
       <c r="K136" s="39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L136" s="39" t="n">
         <v>13</v>
@@ -10534,7 +10534,7 @@
         <v>28</v>
       </c>
       <c r="K143" s="43" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="L143" s="43" t="n">
         <v>70</v>
@@ -10879,7 +10879,7 @@
         <v>8</v>
       </c>
       <c r="K148" s="39" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L148" s="39" t="n">
         <v>45</v>
@@ -10948,7 +10948,7 @@
         <v>28</v>
       </c>
       <c r="K149" s="39" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="L149" s="39" t="n">
         <v>70</v>
@@ -11086,7 +11086,7 @@
         <v>41</v>
       </c>
       <c r="K151" s="39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L151" s="39" t="n">
         <v>21</v>
@@ -11155,7 +11155,7 @@
         <v>93</v>
       </c>
       <c r="K152" s="39" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="L152" s="39" t="n">
         <v>41</v>
@@ -11362,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L155" s="39" t="n">
         <v>9</v>
@@ -11431,7 +11431,7 @@
         <v>78</v>
       </c>
       <c r="K156" s="39" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L156" s="39" t="n">
         <v>18</v>
@@ -11500,7 +11500,7 @@
         <v>9</v>
       </c>
       <c r="K157" s="39" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L157" s="39" t="n">
         <v>9</v>
@@ -11569,7 +11569,7 @@
         <v>225</v>
       </c>
       <c r="K158" s="39" t="n">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="L158" s="39" t="n">
         <v>62</v>
@@ -11638,7 +11638,7 @@
         <v>222</v>
       </c>
       <c r="K159" s="39" t="n">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L159" s="39" t="n">
         <v>44</v>
@@ -11707,7 +11707,7 @@
         <v>406</v>
       </c>
       <c r="K160" s="39" t="n">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="L160" s="39" t="n">
         <v>96</v>
@@ -11845,7 +11845,7 @@
         <v>4</v>
       </c>
       <c r="K162" s="39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L162" s="39" t="n">
         <v>13</v>
@@ -11914,7 +11914,7 @@
         <v>-35</v>
       </c>
       <c r="K163" s="39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L163" s="39" t="n">
         <v>36</v>
@@ -12259,7 +12259,7 @@
         <v>-32</v>
       </c>
       <c r="K168" s="36" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L168" s="36" t="n">
         <v>37</v>
@@ -13087,7 +13087,7 @@
         <v>78</v>
       </c>
       <c r="K180" s="39" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L180" s="39" t="n">
         <v>18</v>
@@ -13156,7 +13156,7 @@
         <v>8</v>
       </c>
       <c r="K181" s="39" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L181" s="39" t="n">
         <v>53</v>
@@ -13225,7 +13225,7 @@
         <v>-20</v>
       </c>
       <c r="K182" s="32" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L182" s="32" t="n">
         <v>33</v>
@@ -13294,7 +13294,7 @@
         <v>-13</v>
       </c>
       <c r="K183" s="39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L183" s="39" t="n">
         <v>43</v>
@@ -13363,7 +13363,7 @@
         <v>-25</v>
       </c>
       <c r="K184" s="32" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L184" s="32" t="n">
         <v>74</v>
@@ -13570,7 +13570,7 @@
         <v>-32</v>
       </c>
       <c r="K187" s="36" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L187" s="36" t="n">
         <v>37</v>
@@ -13639,7 +13639,7 @@
         <v>-47</v>
       </c>
       <c r="K188" s="36" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L188" s="36" t="n">
         <v>80</v>
@@ -13708,7 +13708,7 @@
         <v>3</v>
       </c>
       <c r="K189" s="43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L189" s="43" t="n">
         <v>14</v>
@@ -13915,7 +13915,7 @@
         <v>-35</v>
       </c>
       <c r="K192" s="43" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L192" s="43" t="n">
         <v>36</v>
@@ -14260,7 +14260,7 @@
         <v>3</v>
       </c>
       <c r="K197" s="39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L197" s="39" t="n">
         <v>9</v>
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="K199" s="39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L199" s="39" t="n">
         <v>30</v>
@@ -14467,7 +14467,7 @@
         <v>78</v>
       </c>
       <c r="K200" s="39" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L200" s="39" t="n">
         <v>18</v>
@@ -14536,7 +14536,7 @@
         <v>32</v>
       </c>
       <c r="K201" s="39" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L201" s="39" t="n">
         <v>17</v>
@@ -14605,7 +14605,7 @@
         <v>-20</v>
       </c>
       <c r="K202" s="32" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L202" s="32" t="n">
         <v>33</v>
@@ -14674,7 +14674,7 @@
         <v>-13</v>
       </c>
       <c r="K203" s="39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L203" s="39" t="n">
         <v>43</v>
@@ -14743,7 +14743,7 @@
         <v>1</v>
       </c>
       <c r="K204" s="39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L204" s="39" t="n">
         <v>30</v>
@@ -14812,7 +14812,7 @@
         <v>-36</v>
       </c>
       <c r="K205" s="32" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L205" s="32" t="n">
         <v>164</v>
@@ -14881,7 +14881,7 @@
         <v>-25</v>
       </c>
       <c r="K206" s="32" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L206" s="32" t="n">
         <v>74</v>

--- a/Not_assigned_SO.xlsx
+++ b/Not_assigned_SO.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1035" yWindow="2175" windowWidth="28635" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-18" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SO_POD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:S149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -795,13 +795,13 @@
         <v>-2</v>
       </c>
       <c r="G2" s="33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="33" t="n">
         <v>0.1</v>
       </c>
       <c r="I2" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="33" t="n">
         <v>-2</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="32" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="44" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="44" t="n">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N3" s="43" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O3" s="43" t="n">
         <v>19</v>
@@ -3073,13 +3073,13 @@
         <v>47</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O33" s="39" t="n">
         <v>70</v>
@@ -3134,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="40" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="40" t="n">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>19</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O34" s="39" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>17</v>
       </c>
       <c r="H36" s="40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" s="40" t="n">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>6</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O36" s="39" t="n">
         <v>40</v>
@@ -3791,10 +3791,10 @@
         <v>14</v>
       </c>
       <c r="H43" s="44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I43" s="44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" s="44" t="n">
         <v>8</v>
@@ -4168,13 +4168,13 @@
         <v>47</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O48" s="39" t="n">
         <v>207</v>
@@ -5367,75 +5367,75 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="32" t="inlineStr">
+      <c r="A65" s="39" t="inlineStr">
         <is>
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="B65" s="32" t="inlineStr">
+      <c r="B65" s="39" t="inlineStr">
         <is>
           <t>Carnegie Robotics LLC</t>
         </is>
       </c>
-      <c r="C65" s="32" t="inlineStr">
+      <c r="C65" s="39" t="inlineStr">
         <is>
           <t>SO-20251553</t>
         </is>
       </c>
-      <c r="D65" s="32" t="inlineStr">
+      <c r="D65" s="39" t="inlineStr">
         <is>
           <t>mPCIe-CAN-IPEH-4047</t>
         </is>
       </c>
-      <c r="E65" s="33" t="n">
+      <c r="E65" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G65" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="33" t="n">
+      <c r="F65" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="40" t="n">
         <v>0.3</v>
       </c>
-      <c r="I65" s="33" t="n">
+      <c r="I65" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="J65" s="33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K65" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="32" t="n">
+      <c r="J65" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O65" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P65" s="32" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-      <c r="Q65" s="32" t="inlineStr">
+      <c r="L65" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q65" s="39" t="inlineStr">
         <is>
           <t>PO-0139241</t>
         </is>
       </c>
-      <c r="R65" s="32" t="inlineStr">
-        <is>
-          <t>12/31/2099</t>
-        </is>
-      </c>
-      <c r="S65" s="32" t="b">
+      <c r="R65" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S65" s="39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5756,10 +5756,10 @@
         <v>20</v>
       </c>
       <c r="F70" s="44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G70" s="44" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H70" s="44" t="n">
         <v>2.5</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="44" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K70" s="43" t="n">
         <v>80</v>
@@ -5780,7 +5780,7 @@
         <v>92</v>
       </c>
       <c r="N70" s="43" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O70" s="43" t="n">
         <v>44</v>
@@ -5975,10 +5975,10 @@
         <v>10</v>
       </c>
       <c r="F73" s="40" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G73" s="40" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H73" s="40" t="n">
         <v>2.5</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="40" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K73" s="39" t="n">
         <v>80</v>
@@ -5999,7 +5999,7 @@
         <v>92</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O73" s="39" t="n">
         <v>44</v>
@@ -6194,10 +6194,10 @@
         <v>10</v>
       </c>
       <c r="F76" s="44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G76" s="44" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H76" s="44" t="n">
         <v>2.5</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="44" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K76" s="43" t="n">
         <v>80</v>
@@ -6218,7 +6218,7 @@
         <v>92</v>
       </c>
       <c r="N76" s="43" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O76" s="43" t="n">
         <v>44</v>
@@ -6973,75 +6973,75 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="36" t="inlineStr">
+      <c r="A87" s="43" t="inlineStr">
         <is>
           <t>11/11/2025</t>
         </is>
       </c>
-      <c r="B87" s="36" t="inlineStr">
+      <c r="B87" s="43" t="inlineStr">
         <is>
           <t>Brunswick Corporation (IL)</t>
         </is>
       </c>
-      <c r="C87" s="36" t="inlineStr">
+      <c r="C87" s="43" t="inlineStr">
         <is>
           <t>SO-20251608</t>
         </is>
       </c>
-      <c r="D87" s="36" t="inlineStr">
+      <c r="D87" s="43" t="inlineStr">
         <is>
           <t>mPCIe-CAN-IPEH-4047</t>
         </is>
       </c>
-      <c r="E87" s="37" t="n">
+      <c r="E87" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="F87" s="37" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G87" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="37" t="n">
+      <c r="F87" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="44" t="n">
         <v>0.3</v>
       </c>
-      <c r="I87" s="37" t="n">
+      <c r="I87" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="J87" s="37" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K87" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" s="36" t="n">
+      <c r="J87" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="O87" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P87" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-      <c r="Q87" s="36" t="inlineStr">
+      <c r="L87" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q87" s="43" t="inlineStr">
         <is>
           <t>539505</t>
         </is>
       </c>
-      <c r="R87" s="36" t="inlineStr">
+      <c r="R87" s="43" t="inlineStr">
         <is>
           <t>07/04/2099</t>
         </is>
       </c>
-      <c r="S87" s="36" t="b">
+      <c r="S87" s="43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7660,10 +7660,10 @@
         <v>7</v>
       </c>
       <c r="H96" s="40" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I96" s="40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J96" s="40" t="n">
         <v>-35</v>
@@ -7672,13 +7672,13 @@
         <v>5</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O96" s="39" t="n">
         <v>42</v>
@@ -8183,13 +8183,13 @@
         <v>47</v>
       </c>
       <c r="L103" s="43" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M103" s="43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N103" s="43" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O103" s="43" t="n">
         <v>70</v>
@@ -8244,10 +8244,10 @@
         <v>12</v>
       </c>
       <c r="H104" s="44" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="I104" s="44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J104" s="44" t="n">
         <v>7</v>
@@ -8317,7 +8317,7 @@
         <v>9</v>
       </c>
       <c r="H105" s="44" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I105" s="44" t="n">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>8</v>
       </c>
       <c r="L105" s="43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M105" s="43" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N105" s="43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O105" s="43" t="n">
         <v>2</v>
@@ -8895,31 +8895,31 @@
         <v>4</v>
       </c>
       <c r="F113" s="44" t="n">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G113" s="44" t="n">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H113" s="44" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="I113" s="44" t="n">
         <v>0</v>
       </c>
       <c r="J113" s="44" t="n">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K113" s="43" t="n">
         <v>263</v>
       </c>
       <c r="L113" s="43" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M113" s="43" t="n">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="N113" s="43" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O113" s="43" t="n">
         <v>0</v>
@@ -8968,31 +8968,31 @@
         <v>2</v>
       </c>
       <c r="F114" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G114" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H114" s="44" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="I114" s="44" t="n">
         <v>0</v>
       </c>
       <c r="J114" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K114" s="43" t="n">
         <v>254</v>
       </c>
       <c r="L114" s="43" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M114" s="43" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N114" s="43" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O114" s="43" t="n">
         <v>0</v>
@@ -9041,31 +9041,31 @@
         <v>6</v>
       </c>
       <c r="F115" s="44" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G115" s="44" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="H115" s="44" t="n">
-        <v>34.9</v>
+        <v>35.6</v>
       </c>
       <c r="I115" s="44" t="n">
         <v>0</v>
       </c>
       <c r="J115" s="44" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="K115" s="43" t="n">
         <v>482</v>
       </c>
       <c r="L115" s="43" t="n">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="M115" s="43" t="n">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="N115" s="43" t="n">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O115" s="43" t="n">
         <v>0</v>
@@ -9114,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="F116" s="44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G116" s="44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H116" s="44" t="n">
         <v>4.4</v>
@@ -9126,19 +9126,19 @@
         <v>0</v>
       </c>
       <c r="J116" s="44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K116" s="43" t="n">
         <v>35</v>
       </c>
       <c r="L116" s="43" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M116" s="43" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N116" s="43" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O116" s="43" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="44" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G117" s="44" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H117" s="44" t="n">
         <v>5.4</v>
@@ -9199,19 +9199,19 @@
         <v>0</v>
       </c>
       <c r="J117" s="44" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K117" s="43" t="n">
         <v>14</v>
       </c>
       <c r="L117" s="43" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M117" s="43" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N117" s="43" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O117" s="43" t="n">
         <v>100</v>
@@ -9455,75 +9455,75 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="36" t="inlineStr">
+      <c r="A121" s="43" t="inlineStr">
         <is>
           <t>11/17/2025</t>
         </is>
       </c>
-      <c r="B121" s="36" t="inlineStr">
+      <c r="B121" s="43" t="inlineStr">
         <is>
           <t>International Automation Solutions, Inc</t>
         </is>
       </c>
-      <c r="C121" s="36" t="inlineStr">
+      <c r="C121" s="43" t="inlineStr">
         <is>
           <t>SO-20251624</t>
         </is>
       </c>
-      <c r="D121" s="36" t="inlineStr">
+      <c r="D121" s="43" t="inlineStr">
         <is>
           <t>PA-1000W-MW</t>
         </is>
       </c>
-      <c r="E121" s="37" t="n">
+      <c r="E121" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="F121" s="37" t="n">
+      <c r="F121" s="44" t="n">
         <v>-1</v>
       </c>
-      <c r="G121" s="37" t="n">
+      <c r="G121" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="H121" s="44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I121" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="44" t="n">
         <v>-1</v>
       </c>
-      <c r="H121" s="37" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I121" s="37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121" s="37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K121" s="36" t="n">
+      <c r="K121" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L121" s="36" t="n">
+      <c r="L121" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="M121" s="36" t="n">
+      <c r="M121" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="N121" s="36" t="n">
+      <c r="N121" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="O121" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P121" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-      <c r="Q121" s="36" t="inlineStr">
+      <c r="O121" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P121" s="43" t="inlineStr">
+        <is>
+          <t>Waiting</t>
+        </is>
+      </c>
+      <c r="Q121" s="43" t="inlineStr">
         <is>
           <t>2539</t>
         </is>
       </c>
-      <c r="R121" s="36" t="inlineStr">
-        <is>
-          <t>12/31/2099</t>
-        </is>
-      </c>
-      <c r="S121" s="36" t="b">
+      <c r="R121" s="43" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S121" s="43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9747,75 +9747,75 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="36" t="inlineStr">
+      <c r="A125" s="43" t="inlineStr">
         <is>
           <t>11/17/2025</t>
         </is>
       </c>
-      <c r="B125" s="36" t="inlineStr">
+      <c r="B125" s="43" t="inlineStr">
         <is>
           <t>International Automation Solutions, Inc</t>
         </is>
       </c>
-      <c r="C125" s="36" t="inlineStr">
+      <c r="C125" s="43" t="inlineStr">
         <is>
           <t>SO-20251624</t>
         </is>
       </c>
-      <c r="D125" s="36" t="inlineStr">
+      <c r="D125" s="43" t="inlineStr">
         <is>
           <t>AccsyBx-Cardholder-10208GC-5080_70_70Ti</t>
         </is>
       </c>
-      <c r="E125" s="37" t="n">
+      <c r="E125" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="37" t="n">
+      <c r="F125" s="44" t="n">
         <v>-5</v>
       </c>
-      <c r="G125" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" s="37" t="n">
+      <c r="G125" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H125" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" s="44" t="n">
         <v>-5</v>
       </c>
-      <c r="K125" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" s="36" t="n">
+      <c r="K125" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="M125" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="36" t="n">
+      <c r="M125" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="O125" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="P125" s="36" t="inlineStr">
-        <is>
-          <t>Shortage</t>
-        </is>
-      </c>
-      <c r="Q125" s="36" t="inlineStr">
+      <c r="O125" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P125" s="43" t="inlineStr">
+        <is>
+          <t>Waiting</t>
+        </is>
+      </c>
+      <c r="Q125" s="43" t="inlineStr">
         <is>
           <t>2539</t>
         </is>
       </c>
-      <c r="R125" s="36" t="inlineStr">
-        <is>
-          <t>12/31/2099</t>
-        </is>
-      </c>
-      <c r="S125" s="36" t="b">
+      <c r="R125" s="43" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S125" s="43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9847,13 +9847,13 @@
         <v>-2</v>
       </c>
       <c r="G126" s="33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H126" s="33" t="n">
         <v>0.1</v>
       </c>
       <c r="I126" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" s="33" t="n">
         <v>-2</v>
@@ -9871,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="O126" s="32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" s="32" t="inlineStr">
         <is>
@@ -10209,31 +10209,31 @@
         <v>20</v>
       </c>
       <c r="F131" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G131" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H131" s="44" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="I131" s="44" t="n">
         <v>0</v>
       </c>
       <c r="J131" s="44" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K131" s="43" t="n">
         <v>254</v>
       </c>
       <c r="L131" s="43" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M131" s="43" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N131" s="43" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O131" s="43" t="n">
         <v>0</v>
@@ -10400,6 +10400,1174 @@
         </is>
       </c>
       <c r="S133" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B134" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C134" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D134" s="39" t="inlineStr">
+        <is>
+          <t>Cbl-PC-TW-180CM1</t>
+        </is>
+      </c>
+      <c r="E134" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" s="40" t="n">
+        <v>86</v>
+      </c>
+      <c r="G134" s="40" t="n">
+        <v>86</v>
+      </c>
+      <c r="H134" s="40" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I134" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J134" s="40" t="n">
+        <v>86</v>
+      </c>
+      <c r="K134" s="39" t="n">
+        <v>126</v>
+      </c>
+      <c r="L134" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="M134" s="39" t="n">
+        <v>127</v>
+      </c>
+      <c r="N134" s="39" t="n">
+        <v>41</v>
+      </c>
+      <c r="O134" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q134" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R134" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S134" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B135" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C135" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D135" s="39" t="inlineStr">
+        <is>
+          <t>DDR4-16GB-WT32-SM</t>
+        </is>
+      </c>
+      <c r="E135" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" s="40" t="n">
+        <v>32</v>
+      </c>
+      <c r="G135" s="40" t="n">
+        <v>76</v>
+      </c>
+      <c r="H135" s="40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I135" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" s="40" t="n">
+        <v>76</v>
+      </c>
+      <c r="K135" s="39" t="n">
+        <v>80</v>
+      </c>
+      <c r="L135" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="M135" s="39" t="n">
+        <v>92</v>
+      </c>
+      <c r="N135" s="39" t="n">
+        <v>60</v>
+      </c>
+      <c r="O135" s="39" t="n">
+        <v>44</v>
+      </c>
+      <c r="P135" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q135" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R135" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S135" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B136" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C136" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D136" s="39" t="inlineStr">
+        <is>
+          <t>Dmpbr-Nuvo5000_7000</t>
+        </is>
+      </c>
+      <c r="E136" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I136" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q136" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R136" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S136" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B137" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C137" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D137" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-COM</t>
+        </is>
+      </c>
+      <c r="E137" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="F137" s="40" t="n">
+        <v>172</v>
+      </c>
+      <c r="G137" s="40" t="n">
+        <v>172</v>
+      </c>
+      <c r="H137" s="40" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I137" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" s="40" t="n">
+        <v>172</v>
+      </c>
+      <c r="K137" s="39" t="n">
+        <v>254</v>
+      </c>
+      <c r="L137" s="39" t="n">
+        <v>58</v>
+      </c>
+      <c r="M137" s="39" t="n">
+        <v>260</v>
+      </c>
+      <c r="N137" s="39" t="n">
+        <v>88</v>
+      </c>
+      <c r="O137" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q137" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R137" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S137" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B138" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C138" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D138" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-DP</t>
+        </is>
+      </c>
+      <c r="E138" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" s="40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G138" s="40" t="n">
+        <v>96</v>
+      </c>
+      <c r="H138" s="40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I138" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" s="40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K138" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L138" s="39" t="n">
+        <v>18</v>
+      </c>
+      <c r="M138" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="N138" s="39" t="n">
+        <v>21</v>
+      </c>
+      <c r="O138" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="P138" s="39" t="inlineStr">
+        <is>
+          <t>Waiting</t>
+        </is>
+      </c>
+      <c r="Q138" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R138" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S138" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B139" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C139" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D139" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-DVI</t>
+        </is>
+      </c>
+      <c r="E139" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="G139" s="40" t="n">
+        <v>93</v>
+      </c>
+      <c r="H139" s="40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I139" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="L139" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="M139" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="N139" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="O139" s="39" t="n">
+        <v>80</v>
+      </c>
+      <c r="P139" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q139" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R139" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S139" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B140" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C140" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D140" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-RJ45</t>
+        </is>
+      </c>
+      <c r="E140" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" s="40" t="n">
+        <v>179</v>
+      </c>
+      <c r="G140" s="40" t="n">
+        <v>179</v>
+      </c>
+      <c r="H140" s="40" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I140" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" s="40" t="n">
+        <v>179</v>
+      </c>
+      <c r="K140" s="39" t="n">
+        <v>263</v>
+      </c>
+      <c r="L140" s="39" t="n">
+        <v>78</v>
+      </c>
+      <c r="M140" s="39" t="n">
+        <v>273</v>
+      </c>
+      <c r="N140" s="39" t="n">
+        <v>94</v>
+      </c>
+      <c r="O140" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q140" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R140" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S140" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B141" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C141" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D141" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-USB-AF</t>
+        </is>
+      </c>
+      <c r="E141" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" s="40" t="n">
+        <v>344</v>
+      </c>
+      <c r="G141" s="40" t="n">
+        <v>344</v>
+      </c>
+      <c r="H141" s="40" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I141" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" s="40" t="n">
+        <v>344</v>
+      </c>
+      <c r="K141" s="39" t="n">
+        <v>482</v>
+      </c>
+      <c r="L141" s="39" t="n">
+        <v>132</v>
+      </c>
+      <c r="M141" s="39" t="n">
+        <v>498</v>
+      </c>
+      <c r="N141" s="39" t="n">
+        <v>154</v>
+      </c>
+      <c r="O141" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q141" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R141" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S141" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B142" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C142" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D142" s="39" t="inlineStr">
+        <is>
+          <t>Dust Cover-VGA-HDB15M</t>
+        </is>
+      </c>
+      <c r="E142" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="H142" s="40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I142" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="K142" s="39" t="n">
+        <v>35</v>
+      </c>
+      <c r="L142" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="M142" s="39" t="n">
+        <v>38</v>
+      </c>
+      <c r="N142" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="O142" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q142" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R142" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S142" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="32" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B143" s="32" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C143" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D143" s="32" t="inlineStr">
+        <is>
+          <t>MezIO-V20</t>
+        </is>
+      </c>
+      <c r="E143" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G143" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H143" s="33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I143" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J143" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K143" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L143" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M143" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="N143" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O143" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+      <c r="Q143" s="32" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R143" s="32" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S143" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B144" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C144" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D144" s="39" t="inlineStr">
+        <is>
+          <t>Nuvo-7006LP-PoE</t>
+        </is>
+      </c>
+      <c r="E144" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I144" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q144" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R144" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S144" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B145" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C145" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D145" s="39" t="inlineStr">
+        <is>
+          <t>PA-120W-OW</t>
+        </is>
+      </c>
+      <c r="E145" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" s="40" t="n">
+        <v>39</v>
+      </c>
+      <c r="G145" s="40" t="n">
+        <v>39</v>
+      </c>
+      <c r="H145" s="40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I145" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" s="40" t="n">
+        <v>39</v>
+      </c>
+      <c r="K145" s="39" t="n">
+        <v>55</v>
+      </c>
+      <c r="L145" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="M145" s="39" t="n">
+        <v>55</v>
+      </c>
+      <c r="N145" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="O145" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q145" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R145" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S145" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B146" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C146" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D146" s="39" t="inlineStr">
+        <is>
+          <t>SSD-512GB-TLC5WT-TD</t>
+        </is>
+      </c>
+      <c r="E146" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="G146" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="H146" s="40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I146" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="K146" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="L146" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="M146" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="N146" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="O146" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q146" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R146" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S146" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="39" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B147" s="39" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C147" s="39" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D147" s="39" t="inlineStr">
+        <is>
+          <t>Win10IoT21-High</t>
+        </is>
+      </c>
+      <c r="E147" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J147" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K147" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L147" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="N147" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" s="39" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q147" s="39" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R147" s="39" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S147" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="32" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B148" s="32" t="inlineStr">
+        <is>
+          <t>Flanders Electric Motor Service, LLC(IN)</t>
+        </is>
+      </c>
+      <c r="C148" s="32" t="inlineStr">
+        <is>
+          <t>SO-20251632</t>
+        </is>
+      </c>
+      <c r="D148" s="32" t="inlineStr">
+        <is>
+          <t>i7-8700</t>
+        </is>
+      </c>
+      <c r="E148" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G148" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H148" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J148" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K148" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" s="32" t="inlineStr">
+        <is>
+          <t>Shortage</t>
+        </is>
+      </c>
+      <c r="Q148" s="32" t="inlineStr">
+        <is>
+          <t>310P064038</t>
+        </is>
+      </c>
+      <c r="R148" s="32" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S148" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="43" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B149" s="43" t="inlineStr">
+        <is>
+          <t>JK Peris INC.</t>
+        </is>
+      </c>
+      <c r="C149" s="43" t="inlineStr">
+        <is>
+          <t>SO-20251633</t>
+        </is>
+      </c>
+      <c r="D149" s="43" t="inlineStr">
+        <is>
+          <t>PB-2580J-SA</t>
+        </is>
+      </c>
+      <c r="E149" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I149" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" s="43" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="Q149" s="43" t="inlineStr">
+        <is>
+          <t>20251117 Backup</t>
+        </is>
+      </c>
+      <c r="R149" s="43" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="S149" s="43" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Not_assigned_SO.xlsx
+++ b/Not_assigned_SO.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1035" yWindow="2175" windowWidth="28635" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-26" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SO_POD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -953,7 +953,7 @@
         <v>-28</v>
       </c>
       <c r="K4" s="36" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L4" s="36" t="n">
         <v>45</v>
@@ -1026,7 +1026,7 @@
         <v>-37</v>
       </c>
       <c r="K5" s="36" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L5" s="36" t="n">
         <v>97</v>
@@ -1099,7 +1099,7 @@
         <v>-102</v>
       </c>
       <c r="K6" s="36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L6" s="36" t="n">
         <v>62</v>
@@ -1172,7 +1172,7 @@
         <v>-20</v>
       </c>
       <c r="K7" s="36" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L7" s="36" t="n">
         <v>35</v>
@@ -1245,7 +1245,7 @@
         <v>-26</v>
       </c>
       <c r="K8" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L8" s="43" t="n">
         <v>37</v>
@@ -1318,7 +1318,7 @@
         <v>-41</v>
       </c>
       <c r="K9" s="43" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L9" s="43" t="n">
         <v>74</v>
@@ -1391,7 +1391,7 @@
         <v>-64</v>
       </c>
       <c r="K10" s="36" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L10" s="36" t="n">
         <v>70</v>
@@ -1537,7 +1537,7 @@
         <v>-28</v>
       </c>
       <c r="K12" s="32" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L12" s="32" t="n">
         <v>45</v>
@@ -1610,7 +1610,7 @@
         <v>-37</v>
       </c>
       <c r="K13" s="32" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L13" s="32" t="n">
         <v>97</v>
@@ -1683,7 +1683,7 @@
         <v>-102</v>
       </c>
       <c r="K14" s="32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L14" s="32" t="n">
         <v>62</v>
@@ -1756,7 +1756,7 @@
         <v>-20</v>
       </c>
       <c r="K15" s="32" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L15" s="32" t="n">
         <v>35</v>
@@ -1829,7 +1829,7 @@
         <v>-26</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L16" s="39" t="n">
         <v>37</v>
@@ -1902,7 +1902,7 @@
         <v>-41</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L17" s="39" t="n">
         <v>74</v>
@@ -1975,7 +1975,7 @@
         <v>-64</v>
       </c>
       <c r="K18" s="32" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L18" s="32" t="n">
         <v>70</v>
@@ -2121,7 +2121,7 @@
         <v>-28</v>
       </c>
       <c r="K20" s="36" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L20" s="36" t="n">
         <v>45</v>
@@ -2194,7 +2194,7 @@
         <v>-37</v>
       </c>
       <c r="K21" s="36" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L21" s="36" t="n">
         <v>97</v>
@@ -2267,7 +2267,7 @@
         <v>-102</v>
       </c>
       <c r="K22" s="36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L22" s="36" t="n">
         <v>62</v>
@@ -2340,7 +2340,7 @@
         <v>-20</v>
       </c>
       <c r="K23" s="36" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L23" s="36" t="n">
         <v>35</v>
@@ -2413,7 +2413,7 @@
         <v>-26</v>
       </c>
       <c r="K24" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L24" s="43" t="n">
         <v>37</v>
@@ -2486,7 +2486,7 @@
         <v>-41</v>
       </c>
       <c r="K25" s="43" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L25" s="43" t="n">
         <v>74</v>
@@ -2559,7 +2559,7 @@
         <v>-64</v>
       </c>
       <c r="K26" s="36" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L26" s="36" t="n">
         <v>70</v>
@@ -2778,7 +2778,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="43" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L29" s="43" t="n">
         <v>15</v>
@@ -2851,7 +2851,7 @@
         <v>68</v>
       </c>
       <c r="K30" s="43" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L30" s="43" t="n">
         <v>38</v>
@@ -2924,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="K31" s="43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L31" s="43" t="n">
         <v>56</v>
@@ -3070,7 +3070,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="43" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L33" s="43" t="n">
         <v>15</v>
@@ -3289,7 +3289,7 @@
         <v>-38</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="L36" s="39" t="n">
         <v>103</v>
@@ -3654,7 +3654,7 @@
         <v>46</v>
       </c>
       <c r="K41" s="43" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L41" s="43" t="n">
         <v>16</v>
@@ -3873,7 +3873,7 @@
         <v>46</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L44" s="39" t="n">
         <v>16</v>
@@ -4092,7 +4092,7 @@
         <v>46</v>
       </c>
       <c r="K47" s="43" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L47" s="43" t="n">
         <v>16</v>
@@ -4311,7 +4311,7 @@
         <v>-28</v>
       </c>
       <c r="K50" s="32" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L50" s="32" t="n">
         <v>45</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58" s="32" t="n">
         <v>5</v>
@@ -5187,7 +5187,7 @@
         <v>46</v>
       </c>
       <c r="K62" s="43" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L62" s="43" t="n">
         <v>16</v>
@@ -5260,7 +5260,7 @@
         <v>-17</v>
       </c>
       <c r="K63" s="43" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L63" s="43" t="n">
         <v>3</v>
@@ -5333,7 +5333,7 @@
         <v>115</v>
       </c>
       <c r="K64" s="43" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L64" s="43" t="n">
         <v>96</v>
@@ -5406,7 +5406,7 @@
         <v>132</v>
       </c>
       <c r="K65" s="43" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L65" s="43" t="n">
         <v>70</v>
@@ -5479,7 +5479,7 @@
         <v>256</v>
       </c>
       <c r="K66" s="43" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L66" s="43" t="n">
         <v>148</v>
@@ -5552,7 +5552,7 @@
         <v>-16</v>
       </c>
       <c r="K67" s="43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L67" s="43" t="n">
         <v>19</v>
@@ -5625,7 +5625,7 @@
         <v>9</v>
       </c>
       <c r="K68" s="43" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L68" s="43" t="n">
         <v>15</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L72" s="32" t="n">
         <v>5</v>
@@ -6063,7 +6063,7 @@
         <v>74</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L74" s="39" t="n">
         <v>19</v>
@@ -6136,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L75" s="39" t="n">
         <v>13</v>
@@ -6501,7 +6501,7 @@
         <v>-26</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L80" s="39" t="n">
         <v>37</v>
@@ -6793,7 +6793,7 @@
         <v>115</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L84" s="39" t="n">
         <v>96</v>
@@ -6866,7 +6866,7 @@
         <v>132</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L85" s="39" t="n">
         <v>70</v>
@@ -6939,7 +6939,7 @@
         <v>256</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L86" s="39" t="n">
         <v>148</v>
@@ -7012,7 +7012,7 @@
         <v>9</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L87" s="39" t="n">
         <v>15</v>
@@ -7085,7 +7085,7 @@
         <v>-16</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L88" s="39" t="n">
         <v>19</v>
@@ -7158,7 +7158,7 @@
         <v>-64</v>
       </c>
       <c r="K89" s="32" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L89" s="32" t="n">
         <v>70</v>
@@ -7231,7 +7231,7 @@
         <v>-41</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L90" s="39" t="n">
         <v>74</v>
@@ -7450,7 +7450,7 @@
         <v>11</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L93" s="39" t="n">
         <v>40</v>
@@ -7523,7 +7523,7 @@
         <v>-18</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L94" s="39" t="n">
         <v>20</v>
@@ -7596,7 +7596,7 @@
         <v>-18</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L95" s="39" t="n">
         <v>20</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L96" s="39" t="n">
         <v>4</v>
@@ -7815,7 +7815,7 @@
         <v>18</v>
       </c>
       <c r="K98" s="43" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L98" s="43" t="n">
         <v>29</v>
@@ -7888,7 +7888,7 @@
         <v>-4</v>
       </c>
       <c r="K99" s="43" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="L99" s="43" t="n">
         <v>25</v>
@@ -8034,7 +8034,7 @@
         <v>132</v>
       </c>
       <c r="K101" s="43" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L101" s="43" t="n">
         <v>70</v>
@@ -8180,7 +8180,7 @@
         <v>-9</v>
       </c>
       <c r="K103" s="43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L103" s="43" t="n">
         <v>5</v>
@@ -8399,7 +8399,7 @@
         <v>46</v>
       </c>
       <c r="K106" s="39" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L106" s="39" t="n">
         <v>16</v>
@@ -8472,7 +8472,7 @@
         <v>-17</v>
       </c>
       <c r="K107" s="39" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L107" s="39" t="n">
         <v>3</v>
@@ -8545,7 +8545,7 @@
         <v>-6</v>
       </c>
       <c r="K108" s="32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L108" s="32" t="n">
         <v>2</v>
@@ -8691,7 +8691,7 @@
         <v>-16</v>
       </c>
       <c r="K110" s="39" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L110" s="39" t="n">
         <v>19</v>
@@ -8764,7 +8764,7 @@
         <v>132</v>
       </c>
       <c r="K111" s="39" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L111" s="39" t="n">
         <v>70</v>
@@ -8837,7 +8837,7 @@
         <v>256</v>
       </c>
       <c r="K112" s="39" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L112" s="39" t="n">
         <v>148</v>
@@ -8910,7 +8910,7 @@
         <v>5</v>
       </c>
       <c r="K113" s="39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L113" s="39" t="n">
         <v>14</v>
@@ -8983,7 +8983,7 @@
         <v>9</v>
       </c>
       <c r="K114" s="39" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L114" s="39" t="n">
         <v>15</v>
@@ -9056,7 +9056,7 @@
         <v>115</v>
       </c>
       <c r="K115" s="39" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L115" s="39" t="n">
         <v>96</v>
@@ -9202,7 +9202,7 @@
         <v>36</v>
       </c>
       <c r="K117" s="39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L117" s="39" t="n">
         <v>14</v>
@@ -9275,7 +9275,7 @@
         <v>65</v>
       </c>
       <c r="K118" s="39" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L118" s="39" t="n">
         <v>40</v>
@@ -9567,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="K122" s="43" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L122" s="43" t="n">
         <v>53</v>
@@ -10078,7 +10078,7 @@
         <v>-28</v>
       </c>
       <c r="K129" s="32" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L129" s="32" t="n">
         <v>45</v>
@@ -10224,7 +10224,7 @@
         <v>20</v>
       </c>
       <c r="K131" s="39" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L131" s="39" t="n">
         <v>53</v>
@@ -10370,7 +10370,7 @@
         <v>65</v>
       </c>
       <c r="K133" s="39" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L133" s="39" t="n">
         <v>40</v>
@@ -10662,7 +10662,7 @@
         <v>-37</v>
       </c>
       <c r="K137" s="36" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L137" s="36" t="n">
         <v>97</v>
@@ -10735,7 +10735,7 @@
         <v>20</v>
       </c>
       <c r="K138" s="43" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L138" s="43" t="n">
         <v>22</v>
@@ -10881,7 +10881,7 @@
         <v>42</v>
       </c>
       <c r="K140" s="43" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L140" s="43" t="n">
         <v>15</v>
@@ -10954,7 +10954,7 @@
         <v>65</v>
       </c>
       <c r="K141" s="43" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L141" s="43" t="n">
         <v>40</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L145" s="32" t="n">
         <v>5</v>
@@ -11392,7 +11392,7 @@
         <v>20</v>
       </c>
       <c r="K147" s="39" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L147" s="39" t="n">
         <v>22</v>
@@ -11684,7 +11684,7 @@
         <v>65</v>
       </c>
       <c r="K151" s="39" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L151" s="39" t="n">
         <v>40</v>
@@ -11903,7 +11903,7 @@
         <v>2</v>
       </c>
       <c r="K154" s="43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L154" s="43" t="n">
         <v>6</v>
@@ -12122,7 +12122,7 @@
         <v>20</v>
       </c>
       <c r="K157" s="43" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L157" s="43" t="n">
         <v>53</v>
@@ -12268,7 +12268,7 @@
         <v>-26</v>
       </c>
       <c r="K159" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L159" s="43" t="n">
         <v>37</v>
@@ -12414,7 +12414,7 @@
         <v>-16</v>
       </c>
       <c r="K161" s="43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L161" s="43" t="n">
         <v>19</v>
@@ -12487,7 +12487,7 @@
         <v>132</v>
       </c>
       <c r="K162" s="43" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L162" s="43" t="n">
         <v>70</v>
@@ -12560,7 +12560,7 @@
         <v>256</v>
       </c>
       <c r="K163" s="43" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L163" s="43" t="n">
         <v>148</v>
@@ -12633,7 +12633,7 @@
         <v>78</v>
       </c>
       <c r="K164" s="43" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L164" s="43" t="n">
         <v>14</v>
@@ -12706,7 +12706,7 @@
         <v>5</v>
       </c>
       <c r="K165" s="43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L165" s="43" t="n">
         <v>14</v>
@@ -12779,7 +12779,7 @@
         <v>9</v>
       </c>
       <c r="K166" s="43" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L166" s="43" t="n">
         <v>15</v>
@@ -12852,7 +12852,7 @@
         <v>115</v>
       </c>
       <c r="K167" s="43" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L167" s="43" t="n">
         <v>96</v>
@@ -12925,7 +12925,7 @@
         <v>-64</v>
       </c>
       <c r="K168" s="36" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L168" s="36" t="n">
         <v>70</v>
@@ -12998,7 +12998,7 @@
         <v>-41</v>
       </c>
       <c r="K169" s="43" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L169" s="43" t="n">
         <v>74</v>
@@ -13071,7 +13071,7 @@
         <v>-37</v>
       </c>
       <c r="K170" s="43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L170" s="43" t="n">
         <v>40</v>
@@ -13144,7 +13144,7 @@
         <v>11</v>
       </c>
       <c r="K171" s="43" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L171" s="43" t="n">
         <v>40</v>
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="K174" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L174" s="39" t="n">
         <v>2</v>
@@ -13947,7 +13947,7 @@
         <v>74</v>
       </c>
       <c r="K182" s="43" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L182" s="43" t="n">
         <v>19</v>
@@ -14239,7 +14239,7 @@
         <v>-26</v>
       </c>
       <c r="K186" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L186" s="43" t="n">
         <v>37</v>
@@ -14458,7 +14458,7 @@
         <v>-16</v>
       </c>
       <c r="K189" s="43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L189" s="43" t="n">
         <v>19</v>
@@ -14531,7 +14531,7 @@
         <v>132</v>
       </c>
       <c r="K190" s="43" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L190" s="43" t="n">
         <v>70</v>
@@ -14604,7 +14604,7 @@
         <v>256</v>
       </c>
       <c r="K191" s="43" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L191" s="43" t="n">
         <v>148</v>
@@ -14677,7 +14677,7 @@
         <v>78</v>
       </c>
       <c r="K192" s="43" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L192" s="43" t="n">
         <v>14</v>
@@ -14750,7 +14750,7 @@
         <v>5</v>
       </c>
       <c r="K193" s="43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L193" s="43" t="n">
         <v>14</v>
@@ -14823,7 +14823,7 @@
         <v>9</v>
       </c>
       <c r="K194" s="43" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L194" s="43" t="n">
         <v>15</v>
@@ -14896,7 +14896,7 @@
         <v>115</v>
       </c>
       <c r="K195" s="43" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L195" s="43" t="n">
         <v>96</v>
@@ -14969,7 +14969,7 @@
         <v>-41</v>
       </c>
       <c r="K196" s="43" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L196" s="43" t="n">
         <v>74</v>
@@ -15042,7 +15042,7 @@
         <v>-64</v>
       </c>
       <c r="K197" s="36" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L197" s="36" t="n">
         <v>70</v>
@@ -15188,7 +15188,7 @@
         <v>-37</v>
       </c>
       <c r="K199" s="43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L199" s="43" t="n">
         <v>40</v>
@@ -15261,7 +15261,7 @@
         <v>11</v>
       </c>
       <c r="K200" s="43" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L200" s="43" t="n">
         <v>40</v>
@@ -15626,7 +15626,7 @@
         <v>46</v>
       </c>
       <c r="K205" s="39" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L205" s="39" t="n">
         <v>16</v>
@@ -15699,7 +15699,7 @@
         <v>-17</v>
       </c>
       <c r="K206" s="39" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L206" s="39" t="n">
         <v>3</v>
@@ -15772,7 +15772,7 @@
         <v>115</v>
       </c>
       <c r="K207" s="39" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L207" s="39" t="n">
         <v>96</v>
@@ -15845,7 +15845,7 @@
         <v>132</v>
       </c>
       <c r="K208" s="39" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L208" s="39" t="n">
         <v>70</v>
@@ -15918,7 +15918,7 @@
         <v>256</v>
       </c>
       <c r="K209" s="39" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L209" s="39" t="n">
         <v>148</v>
@@ -15991,7 +15991,7 @@
         <v>-16</v>
       </c>
       <c r="K210" s="39" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L210" s="39" t="n">
         <v>19</v>
@@ -16064,7 +16064,7 @@
         <v>9</v>
       </c>
       <c r="K211" s="39" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L211" s="39" t="n">
         <v>15</v>
@@ -16867,7 +16867,7 @@
         <v>-26</v>
       </c>
       <c r="K222" s="39" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L222" s="39" t="n">
         <v>37</v>
@@ -17159,7 +17159,7 @@
         <v>7</v>
       </c>
       <c r="K226" s="39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L226" s="39" t="n">
         <v>4</v>
@@ -17232,7 +17232,7 @@
         <v>-64</v>
       </c>
       <c r="K227" s="32" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L227" s="32" t="n">
         <v>70</v>
@@ -17305,7 +17305,7 @@
         <v>-41</v>
       </c>
       <c r="K228" s="39" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L228" s="39" t="n">
         <v>74</v>
@@ -17670,7 +17670,7 @@
         <v>-38</v>
       </c>
       <c r="K233" s="43" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="L233" s="43" t="n">
         <v>103</v>
@@ -17743,7 +17743,7 @@
         <v>-6</v>
       </c>
       <c r="K234" s="36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L234" s="36" t="n">
         <v>2</v>
@@ -18181,7 +18181,7 @@
         <v>-37</v>
       </c>
       <c r="K240" s="32" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L240" s="32" t="n">
         <v>97</v>
@@ -18254,7 +18254,7 @@
         <v>-6</v>
       </c>
       <c r="K241" s="32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L241" s="32" t="n">
         <v>2</v>
@@ -18546,7 +18546,7 @@
         <v>46</v>
       </c>
       <c r="K245" s="43" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L245" s="43" t="n">
         <v>16</v>
@@ -18765,7 +18765,7 @@
         <v>-17</v>
       </c>
       <c r="K248" s="43" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L248" s="43" t="n">
         <v>3</v>
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="K250" s="32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L250" s="32" t="n">
         <v>5</v>
@@ -18984,7 +18984,7 @@
         <v>10</v>
       </c>
       <c r="K251" s="39" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L251" s="39" t="n">
         <v>3</v>
@@ -19057,7 +19057,7 @@
         <v>12</v>
       </c>
       <c r="K252" s="39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L252" s="39" t="n">
         <v>56</v>
@@ -19568,7 +19568,7 @@
         <v>-64</v>
       </c>
       <c r="K259" s="32" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L259" s="32" t="n">
         <v>70</v>
@@ -19787,7 +19787,7 @@
         <v>20</v>
       </c>
       <c r="K262" s="43" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L262" s="43" t="n">
         <v>53</v>
@@ -20006,7 +20006,7 @@
         <v>-26</v>
       </c>
       <c r="K265" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L265" s="43" t="n">
         <v>37</v>
@@ -20663,7 +20663,7 @@
         <v>-38</v>
       </c>
       <c r="K274" s="43" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="L274" s="43" t="n">
         <v>103</v>
@@ -20882,7 +20882,7 @@
         <v>-3</v>
       </c>
       <c r="K277" s="39" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L277" s="39" t="n">
         <v>12</v>
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L282" s="32" t="n">
         <v>5</v>
@@ -21393,7 +21393,7 @@
         <v>20</v>
       </c>
       <c r="K284" s="39" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L284" s="39" t="n">
         <v>22</v>
@@ -21758,7 +21758,7 @@
         <v>65</v>
       </c>
       <c r="K289" s="39" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L289" s="39" t="n">
         <v>40</v>
@@ -21904,7 +21904,7 @@
         <v>1</v>
       </c>
       <c r="K291" s="43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L291" s="43" t="n">
         <v>4</v>
@@ -22123,7 +22123,7 @@
         <v>4</v>
       </c>
       <c r="K294" s="43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L294" s="43" t="n">
         <v>6</v>
@@ -22196,7 +22196,7 @@
         <v>-6</v>
       </c>
       <c r="K295" s="43" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L295" s="43" t="n">
         <v>12</v>
@@ -22561,7 +22561,7 @@
         <v>-22</v>
       </c>
       <c r="K300" s="36" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L300" s="36" t="n">
         <v>56</v>
@@ -22634,7 +22634,7 @@
         <v>-38</v>
       </c>
       <c r="K301" s="43" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="L301" s="43" t="n">
         <v>103</v>
@@ -22926,7 +22926,7 @@
         <v>-26</v>
       </c>
       <c r="K305" s="43" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L305" s="43" t="n">
         <v>37</v>
@@ -22999,7 +22999,7 @@
         <v>-64</v>
       </c>
       <c r="K306" s="36" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L306" s="36" t="n">
         <v>70</v>
@@ -23072,7 +23072,7 @@
         <v>-41</v>
       </c>
       <c r="K307" s="43" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L307" s="43" t="n">
         <v>74</v>
@@ -23145,7 +23145,7 @@
         <v>36</v>
       </c>
       <c r="K308" s="43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L308" s="43" t="n">
         <v>14</v>
@@ -23218,7 +23218,7 @@
         <v>65</v>
       </c>
       <c r="K309" s="43" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L309" s="43" t="n">
         <v>40</v>
